--- a/JRODe_test.xlsx
+++ b/JRODe_test.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6413" yWindow="1132" windowWidth="17505" windowHeight="13838" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="915" yWindow="2925" windowWidth="13215" windowHeight="11498" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="copied-ws" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="trans-log" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -437,10 +439,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:DJ21"/>
+  <dimension ref="A1:DJ22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CU1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="CZ10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:DJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="6.86328125" defaultRowHeight="6.4" customHeight="1"/>
@@ -1958,13 +1960,13 @@
       <c r="CF5" s="0" t="inlineStr"/>
       <c r="CG5" s="0" t="inlineStr">
         <is>
-          <t>---</t>
+          <t>予定治療完遂(8日以上の中断あり)</t>
         </is>
       </c>
       <c r="CH5" s="0" t="inlineStr"/>
       <c r="CI5" s="0" t="inlineStr">
         <is>
-          <t>3.担癌不詳生存</t>
+          <t>7.消息不明</t>
         </is>
       </c>
       <c r="CJ5" s="0" t="inlineStr">
@@ -6150,8 +6152,6593 @@
         </is>
       </c>
     </row>
+    <row r="22" ht="12" customHeight="1" s="2">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK22" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL22" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO22" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP22" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR22" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS22" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU22" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV22" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW22" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY22" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ22" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA22" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB22" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="BC22" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD22" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE22" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF22" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="BG22" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="BH22" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="BI22" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ22" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="BK22" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="BL22" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="BM22" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="BN22" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="BO22" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="BP22" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="BQ22" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="BR22" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="BS22" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="BT22" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="BU22" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="BV22" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="BW22" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="BX22" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="BY22" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="BZ22" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="CA22" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="CB22" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="CC22" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="CD22" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="CE22" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="CF22" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="CG22" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="CH22" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="CI22" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="CJ22" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="CK22" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="CL22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="CM22" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN22" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="CO22" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="CP22" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="CQ22" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="CR22" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="CS22" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="CT22" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="CU22" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CV22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW22" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CX22" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CY22" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="CZ22" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="DA22" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="DB22" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="DC22" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="DD22" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DE22" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DF22" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DG22" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DH22" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DI22" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DJ22" s="0" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" ht="12" customHeight="1" s="2"/>
+    <row r="24" ht="12" customHeight="1" s="2"/>
+    <row r="25" ht="12" customHeight="1" s="2"/>
+    <row r="26" ht="12" customHeight="1" s="2"/>
+    <row r="27" ht="12" customHeight="1" s="2"/>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="landscape" paperSize="8" fitToHeight="0" fitToWidth="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:DJ22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="6.86328125" defaultRowHeight="6.4" customHeight="1"/>
+  <cols>
+    <col width="6.86328125" customWidth="1" style="2" min="1" max="1"/>
+    <col width="4.33203125" customWidth="1" style="2" min="2" max="2"/>
+    <col width="4.46484375" customWidth="1" style="2" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12" customHeight="1" s="2">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>院内管理コード</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>性別</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>照射開始時年齢</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>照射開始時Karnofsky PS</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>照射開始時ECOG PS</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>重複がん</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>重複がんの時期</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>重複がんメモ</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>照射歴</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>疾患名</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>原発部位</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>原発部位側性</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>原発部位ICD-Oコード</t>
+        </is>
+      </c>
+      <c r="N1" s="0" t="inlineStr">
+        <is>
+          <t>病理組織</t>
+        </is>
+      </c>
+      <c r="O1" s="0" t="inlineStr">
+        <is>
+          <t>病理組織ICD-Oコード</t>
+        </is>
+      </c>
+      <c r="P1" s="0" t="inlineStr">
+        <is>
+          <t>病期分類名1</t>
+        </is>
+      </c>
+      <c r="Q1" s="0" t="inlineStr">
+        <is>
+          <t>CPR1</t>
+        </is>
+      </c>
+      <c r="R1" s="0" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="S1" s="0" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="T1" s="0" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="U1" s="0" t="inlineStr">
+        <is>
+          <t>Stage1</t>
+        </is>
+      </c>
+      <c r="V1" s="0" t="inlineStr">
+        <is>
+          <t>Grade1</t>
+        </is>
+      </c>
+      <c r="W1" s="0" t="inlineStr">
+        <is>
+          <t>病期分類名2</t>
+        </is>
+      </c>
+      <c r="X1" s="0" t="inlineStr">
+        <is>
+          <t>CPR2</t>
+        </is>
+      </c>
+      <c r="Y1" s="0" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="Z1" s="0" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="AA1" s="0" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="AB1" s="0" t="inlineStr">
+        <is>
+          <t>Stage2</t>
+        </is>
+      </c>
+      <c r="AC1" s="0" t="inlineStr">
+        <is>
+          <t>Grade2</t>
+        </is>
+      </c>
+      <c r="AD1" s="0" t="inlineStr">
+        <is>
+          <t>病期分類名3</t>
+        </is>
+      </c>
+      <c r="AE1" s="0" t="inlineStr">
+        <is>
+          <t>CPR3</t>
+        </is>
+      </c>
+      <c r="AF1" s="0" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="AG1" s="0" t="inlineStr">
+        <is>
+          <t>N3</t>
+        </is>
+      </c>
+      <c r="AH1" s="0" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="AI1" s="0" t="inlineStr">
+        <is>
+          <t>Stage3</t>
+        </is>
+      </c>
+      <c r="AJ1" s="0" t="inlineStr">
+        <is>
+          <t>Grade3</t>
+        </is>
+      </c>
+      <c r="AK1" s="0" t="inlineStr">
+        <is>
+          <t>JASTRO 構造調査用疾患分類</t>
+        </is>
+      </c>
+      <c r="AL1" s="0" t="inlineStr">
+        <is>
+          <t>今回の治療</t>
+        </is>
+      </c>
+      <c r="AM1" s="0" t="inlineStr">
+        <is>
+          <t>新患・再患</t>
+        </is>
+      </c>
+      <c r="AN1" s="0" t="inlineStr">
+        <is>
+          <t>治療方針</t>
+        </is>
+      </c>
+      <c r="AO1" s="0" t="inlineStr">
+        <is>
+          <t>併用療法</t>
+        </is>
+      </c>
+      <c r="AP1" s="0" t="inlineStr">
+        <is>
+          <t>外来・入院</t>
+        </is>
+      </c>
+      <c r="AQ1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射開始日</t>
+        </is>
+      </c>
+      <c r="AR1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射終了日</t>
+        </is>
+      </c>
+      <c r="AS1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射総線量</t>
+        </is>
+      </c>
+      <c r="AT1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射日数</t>
+        </is>
+      </c>
+      <c r="AU1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射分割回数</t>
+        </is>
+      </c>
+      <c r="AV1" s="0" t="inlineStr">
+        <is>
+          <t>一日あたり照射回数</t>
+        </is>
+      </c>
+      <c r="AW1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射カテゴリー</t>
+        </is>
+      </c>
+      <c r="AX1" s="0" t="inlineStr">
+        <is>
+          <t>治療対象遠隔転移部位</t>
+        </is>
+      </c>
+      <c r="AY1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射部位</t>
+        </is>
+      </c>
+      <c r="AZ1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射部位ICD-Oコード</t>
+        </is>
+      </c>
+      <c r="BA1" s="0" t="inlineStr">
+        <is>
+          <t>線種1</t>
+        </is>
+      </c>
+      <c r="BB1" s="0" t="inlineStr">
+        <is>
+          <t>エネルギー1</t>
+        </is>
+      </c>
+      <c r="BC1" s="0" t="inlineStr">
+        <is>
+          <t>線種2</t>
+        </is>
+      </c>
+      <c r="BD1" s="0" t="inlineStr">
+        <is>
+          <t>エネルギー2</t>
+        </is>
+      </c>
+      <c r="BE1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射担当医</t>
+        </is>
+      </c>
+      <c r="BF1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射指導医</t>
+        </is>
+      </c>
+      <c r="BG1" s="0" t="inlineStr">
+        <is>
+          <t>特殊照射</t>
+        </is>
+      </c>
+      <c r="BH1" s="0" t="inlineStr">
+        <is>
+          <t>治療加算1</t>
+        </is>
+      </c>
+      <c r="BI1" s="0" t="inlineStr">
+        <is>
+          <t>放射線治療管理料一回目</t>
+        </is>
+      </c>
+      <c r="BJ1" s="0" t="inlineStr">
+        <is>
+          <t>放射線治療管理料二回目</t>
+        </is>
+      </c>
+      <c r="BK1" s="0" t="inlineStr">
+        <is>
+          <t>外部照射メモ</t>
+        </is>
+      </c>
+      <c r="BL1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源部位</t>
+        </is>
+      </c>
+      <c r="BM1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源部位ICD-Oコード</t>
+        </is>
+      </c>
+      <c r="BN1" s="0" t="inlineStr">
+        <is>
+          <t>密封線源</t>
+        </is>
+      </c>
+      <c r="BO1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源線量率</t>
+        </is>
+      </c>
+      <c r="BP1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源照射方法</t>
+        </is>
+      </c>
+      <c r="BQ1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源一回線量</t>
+        </is>
+      </c>
+      <c r="BR1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源分割回数</t>
+        </is>
+      </c>
+      <c r="BS1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源総線量</t>
+        </is>
+      </c>
+      <c r="BT1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源治療開始日</t>
+        </is>
+      </c>
+      <c r="BU1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源治療終了日</t>
+        </is>
+      </c>
+      <c r="BV1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源治療日数</t>
+        </is>
+      </c>
+      <c r="BW1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源担当医</t>
+        </is>
+      </c>
+      <c r="BX1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源指導医</t>
+        </is>
+      </c>
+      <c r="BY1" s="0" t="inlineStr">
+        <is>
+          <t>三次元治療計画</t>
+        </is>
+      </c>
+      <c r="BZ1" s="0" t="inlineStr">
+        <is>
+          <t>密封小線源メモ</t>
+        </is>
+      </c>
+      <c r="CA1" s="0" t="inlineStr">
+        <is>
+          <t>非密封線源</t>
+        </is>
+      </c>
+      <c r="CB1" s="0" t="inlineStr">
+        <is>
+          <t>非密封線源投与量</t>
+        </is>
+      </c>
+      <c r="CC1" s="0" t="inlineStr">
+        <is>
+          <t>非密封線源投与回数</t>
+        </is>
+      </c>
+      <c r="CD1" s="0" t="inlineStr">
+        <is>
+          <t>非密封線源投与日</t>
+        </is>
+      </c>
+      <c r="CE1" s="0" t="inlineStr">
+        <is>
+          <t>非密封線源担当医</t>
+        </is>
+      </c>
+      <c r="CF1" s="0" t="inlineStr">
+        <is>
+          <t>非密封線源メモ</t>
+        </is>
+      </c>
+      <c r="CG1" s="0" t="inlineStr">
+        <is>
+          <t>放射線治療完遂度</t>
+        </is>
+      </c>
+      <c r="CH1" s="0" t="inlineStr">
+        <is>
+          <t>一次効果</t>
+        </is>
+      </c>
+      <c r="CI1" s="0" t="inlineStr">
+        <is>
+          <t>生死の状況</t>
+        </is>
+      </c>
+      <c r="CJ1" s="0" t="inlineStr">
+        <is>
+          <t>最終確認日</t>
+        </is>
+      </c>
+      <c r="CK1" s="0" t="inlineStr">
+        <is>
+          <t>再発の有無</t>
+        </is>
+      </c>
+      <c r="CL1" s="0" t="inlineStr">
+        <is>
+          <t>再発確認日</t>
+        </is>
+      </c>
+      <c r="CM1" s="0" t="inlineStr">
+        <is>
+          <t>再発部位</t>
+        </is>
+      </c>
+      <c r="CN1" s="0" t="inlineStr">
+        <is>
+          <t>再発部位詳細</t>
+        </is>
+      </c>
+      <c r="CO1" s="0" t="inlineStr">
+        <is>
+          <t>再発治療の有無</t>
+        </is>
+      </c>
+      <c r="CP1" s="0" t="inlineStr">
+        <is>
+          <t>再発治療内容詳細</t>
+        </is>
+      </c>
+      <c r="CQ1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象の有無</t>
+        </is>
+      </c>
+      <c r="CR1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象確認日1</t>
+        </is>
+      </c>
+      <c r="CS1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象発生部位1</t>
+        </is>
+      </c>
+      <c r="CT1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象グレード1</t>
+        </is>
+      </c>
+      <c r="CU1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象確認日2</t>
+        </is>
+      </c>
+      <c r="CV1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象発生部位2</t>
+        </is>
+      </c>
+      <c r="CW1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象グレード2</t>
+        </is>
+      </c>
+      <c r="CX1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象確認日3</t>
+        </is>
+      </c>
+      <c r="CY1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象発生部位3</t>
+        </is>
+      </c>
+      <c r="CZ1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象グレード3</t>
+        </is>
+      </c>
+      <c r="DA1" s="0" t="inlineStr">
+        <is>
+          <t>有害事象メモ</t>
+        </is>
+      </c>
+      <c r="DB1" s="0" t="inlineStr">
+        <is>
+          <t>続発がんの有無</t>
+        </is>
+      </c>
+      <c r="DC1" s="0" t="inlineStr">
+        <is>
+          <t>続発がん確認日</t>
+        </is>
+      </c>
+      <c r="DD1" s="0" t="inlineStr">
+        <is>
+          <t>続発がん部位</t>
+        </is>
+      </c>
+      <c r="DE1" s="0" t="inlineStr">
+        <is>
+          <t>続発がんメモ</t>
+        </is>
+      </c>
+      <c r="DF1" s="0" t="inlineStr">
+        <is>
+          <t>施設名</t>
+        </is>
+      </c>
+      <c r="DG1" s="0" t="inlineStr">
+        <is>
+          <t>施設コード</t>
+        </is>
+      </c>
+      <c r="DH1" s="0" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="DI1" s="0" t="inlineStr">
+        <is>
+          <t>OBR_Set_ID</t>
+        </is>
+      </c>
+      <c r="DJ1" s="0" t="inlineStr">
+        <is>
+          <t>診断タイプ</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12" customHeight="1" s="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>16532</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr"/>
+      <c r="E2" s="0" t="inlineStr"/>
+      <c r="F2" s="0" t="inlineStr"/>
+      <c r="G2" s="0" t="inlineStr"/>
+      <c r="H2" s="0" t="inlineStr"/>
+      <c r="I2" s="0" t="inlineStr"/>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>肝癌</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>肝</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>C22.0</t>
+        </is>
+      </c>
+      <c r="N2" s="0" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O2" s="0" t="inlineStr">
+        <is>
+          <t>M8170/3</t>
+        </is>
+      </c>
+      <c r="P2" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="Q2" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="R2" s="0" t="inlineStr">
+        <is>
+          <t>T1a</t>
+        </is>
+      </c>
+      <c r="S2" s="0" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="T2" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="U2" s="0" t="inlineStr">
+        <is>
+          <t>SIA</t>
+        </is>
+      </c>
+      <c r="V2" s="0" t="inlineStr"/>
+      <c r="W2" s="0" t="inlineStr"/>
+      <c r="X2" s="0" t="inlineStr"/>
+      <c r="Y2" s="0" t="inlineStr"/>
+      <c r="Z2" s="0" t="inlineStr"/>
+      <c r="AA2" s="0" t="inlineStr"/>
+      <c r="AB2" s="0" t="inlineStr"/>
+      <c r="AC2" s="0" t="inlineStr"/>
+      <c r="AD2" s="0" t="inlineStr"/>
+      <c r="AE2" s="0" t="inlineStr"/>
+      <c r="AF2" s="0" t="inlineStr"/>
+      <c r="AG2" s="0" t="inlineStr"/>
+      <c r="AH2" s="0" t="inlineStr"/>
+      <c r="AI2" s="0" t="inlineStr"/>
+      <c r="AJ2" s="0" t="inlineStr"/>
+      <c r="AK2" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="AL2" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM2" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN2" s="0" t="inlineStr">
+        <is>
+          <t>術後</t>
+        </is>
+      </c>
+      <c r="AO2" s="0" t="inlineStr"/>
+      <c r="AP2" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ2" s="0" t="inlineStr">
+        <is>
+          <t>2024/02/29</t>
+        </is>
+      </c>
+      <c r="AR2" s="0" t="inlineStr">
+        <is>
+          <t>2024/03/22</t>
+        </is>
+      </c>
+      <c r="AS2" s="0" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="AT2" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AU2" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AV2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW2" s="0" t="inlineStr"/>
+      <c r="AX2" s="0" t="inlineStr"/>
+      <c r="AY2" s="0" t="inlineStr">
+        <is>
+          <t>乳頭部及び乳輪の悪性新生物</t>
+        </is>
+      </c>
+      <c r="AZ2" s="0" t="inlineStr">
+        <is>
+          <t>C50.0</t>
+        </is>
+      </c>
+      <c r="BA2" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB2" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC2" s="0" t="inlineStr"/>
+      <c r="BD2" s="0" t="inlineStr"/>
+      <c r="BE2" s="0" t="inlineStr"/>
+      <c r="BF2" s="0" t="inlineStr"/>
+      <c r="BG2" s="0" t="inlineStr"/>
+      <c r="BH2" s="0" t="inlineStr">
+        <is>
+          <t>画像誘導放射線治療加算</t>
+        </is>
+      </c>
+      <c r="BI2" s="0" t="inlineStr">
+        <is>
+          <t>複雑</t>
+        </is>
+      </c>
+      <c r="BJ2" s="0" t="inlineStr"/>
+      <c r="BK2" s="0" t="inlineStr"/>
+      <c r="BL2" s="0" t="inlineStr"/>
+      <c r="BM2" s="0" t="inlineStr"/>
+      <c r="BN2" s="0" t="inlineStr"/>
+      <c r="BO2" s="0" t="inlineStr"/>
+      <c r="BP2" s="0" t="inlineStr"/>
+      <c r="BQ2" s="0" t="inlineStr"/>
+      <c r="BR2" s="0" t="inlineStr"/>
+      <c r="BS2" s="0" t="inlineStr"/>
+      <c r="BT2" s="0" t="inlineStr"/>
+      <c r="BU2" s="0" t="inlineStr"/>
+      <c r="BV2" s="0" t="inlineStr"/>
+      <c r="BW2" s="0" t="inlineStr"/>
+      <c r="BX2" s="0" t="inlineStr"/>
+      <c r="BY2" s="0" t="inlineStr"/>
+      <c r="BZ2" s="0" t="inlineStr"/>
+      <c r="CA2" s="0" t="inlineStr"/>
+      <c r="CB2" s="0" t="inlineStr"/>
+      <c r="CC2" s="0" t="inlineStr"/>
+      <c r="CD2" s="0" t="inlineStr"/>
+      <c r="CE2" s="0" t="inlineStr"/>
+      <c r="CF2" s="0" t="inlineStr"/>
+      <c r="CG2" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH2" s="0" t="inlineStr"/>
+      <c r="CI2" s="0" t="inlineStr">
+        <is>
+          <t>非担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ2" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/18</t>
+        </is>
+      </c>
+      <c r="CK2" s="0" t="inlineStr"/>
+      <c r="CL2" s="0" t="inlineStr"/>
+      <c r="CM2" s="0" t="inlineStr"/>
+      <c r="CN2" s="0" t="inlineStr"/>
+      <c r="CO2" s="0" t="inlineStr"/>
+      <c r="CP2" s="0" t="inlineStr"/>
+      <c r="CQ2" s="0" t="inlineStr"/>
+      <c r="CR2" s="0" t="inlineStr"/>
+      <c r="CS2" s="0" t="inlineStr"/>
+      <c r="CT2" s="0" t="inlineStr"/>
+      <c r="CU2" s="0" t="inlineStr"/>
+      <c r="CV2" s="0" t="inlineStr"/>
+      <c r="CW2" s="0" t="inlineStr"/>
+      <c r="CX2" s="0" t="inlineStr"/>
+      <c r="CY2" s="0" t="inlineStr"/>
+      <c r="CZ2" s="0" t="inlineStr"/>
+      <c r="DA2" s="0" t="inlineStr"/>
+      <c r="DB2" s="0" t="inlineStr"/>
+      <c r="DC2" s="0" t="inlineStr"/>
+      <c r="DD2" s="0" t="inlineStr"/>
+      <c r="DE2" s="0" t="inlineStr"/>
+      <c r="DF2" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG2" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH2" s="0" t="inlineStr">
+        <is>
+          <t>0000041750</t>
+        </is>
+      </c>
+      <c r="DJ2" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12" customHeight="1" s="2">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>16327</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr"/>
+      <c r="E3" s="0" t="inlineStr"/>
+      <c r="F3" s="0" t="inlineStr"/>
+      <c r="G3" s="0" t="inlineStr"/>
+      <c r="H3" s="0" t="inlineStr"/>
+      <c r="I3" s="0" t="inlineStr"/>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>腎癌</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>腎</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>lt</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>C64.9</t>
+        </is>
+      </c>
+      <c r="N3" s="0" t="inlineStr"/>
+      <c r="O3" s="0" t="inlineStr"/>
+      <c r="P3" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="Q3" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="R3" s="0" t="inlineStr">
+        <is>
+          <t>T1c</t>
+        </is>
+      </c>
+      <c r="S3" s="0" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="T3" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="U3" s="0" t="inlineStr">
+        <is>
+          <t>SIA3</t>
+        </is>
+      </c>
+      <c r="V3" s="0" t="inlineStr"/>
+      <c r="W3" s="0" t="inlineStr"/>
+      <c r="X3" s="0" t="inlineStr"/>
+      <c r="Y3" s="0" t="inlineStr"/>
+      <c r="Z3" s="0" t="inlineStr"/>
+      <c r="AA3" s="0" t="inlineStr"/>
+      <c r="AB3" s="0" t="inlineStr"/>
+      <c r="AC3" s="0" t="inlineStr"/>
+      <c r="AD3" s="0" t="inlineStr"/>
+      <c r="AE3" s="0" t="inlineStr"/>
+      <c r="AF3" s="0" t="inlineStr"/>
+      <c r="AG3" s="0" t="inlineStr"/>
+      <c r="AH3" s="0" t="inlineStr"/>
+      <c r="AI3" s="0" t="inlineStr"/>
+      <c r="AJ3" s="0" t="inlineStr"/>
+      <c r="AK3" s="0" t="inlineStr">
+        <is>
+          <t>肺癌・気管・縦隔腫瘍</t>
+        </is>
+      </c>
+      <c r="AL3" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM3" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN3" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO3" s="0" t="inlineStr"/>
+      <c r="AP3" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ3" s="0" t="inlineStr">
+        <is>
+          <t>2024/05/09</t>
+        </is>
+      </c>
+      <c r="AR3" s="0" t="inlineStr">
+        <is>
+          <t>2024/05/13</t>
+        </is>
+      </c>
+      <c r="AS3" s="0" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="AT3" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU3" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV3" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW3" s="0" t="inlineStr"/>
+      <c r="AX3" s="0" t="inlineStr"/>
+      <c r="AY3" s="0" t="inlineStr">
+        <is>
+          <t>肺; NOS</t>
+        </is>
+      </c>
+      <c r="AZ3" s="0" t="inlineStr">
+        <is>
+          <t>C34.9</t>
+        </is>
+      </c>
+      <c r="BA3" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB3" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC3" s="0" t="inlineStr"/>
+      <c r="BD3" s="0" t="inlineStr"/>
+      <c r="BE3" s="0" t="inlineStr"/>
+      <c r="BF3" s="0" t="inlineStr"/>
+      <c r="BG3" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH3" s="0" t="inlineStr"/>
+      <c r="BI3" s="0" t="inlineStr"/>
+      <c r="BJ3" s="0" t="inlineStr"/>
+      <c r="BK3" s="0" t="inlineStr"/>
+      <c r="BL3" s="0" t="inlineStr"/>
+      <c r="BM3" s="0" t="inlineStr"/>
+      <c r="BN3" s="0" t="inlineStr"/>
+      <c r="BO3" s="0" t="inlineStr"/>
+      <c r="BP3" s="0" t="inlineStr"/>
+      <c r="BQ3" s="0" t="inlineStr"/>
+      <c r="BR3" s="0" t="inlineStr"/>
+      <c r="BS3" s="0" t="inlineStr"/>
+      <c r="BT3" s="0" t="inlineStr"/>
+      <c r="BU3" s="0" t="inlineStr"/>
+      <c r="BV3" s="0" t="inlineStr"/>
+      <c r="BW3" s="0" t="inlineStr"/>
+      <c r="BX3" s="0" t="inlineStr"/>
+      <c r="BY3" s="0" t="inlineStr"/>
+      <c r="BZ3" s="0" t="inlineStr"/>
+      <c r="CA3" s="0" t="inlineStr"/>
+      <c r="CB3" s="0" t="inlineStr"/>
+      <c r="CC3" s="0" t="inlineStr"/>
+      <c r="CD3" s="0" t="inlineStr"/>
+      <c r="CE3" s="0" t="inlineStr"/>
+      <c r="CF3" s="0" t="inlineStr"/>
+      <c r="CG3" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH3" s="0" t="inlineStr"/>
+      <c r="CI3" s="0" t="inlineStr">
+        <is>
+          <t>原病死</t>
+        </is>
+      </c>
+      <c r="CJ3" s="0" t="inlineStr">
+        <is>
+          <t>2024/08/09</t>
+        </is>
+      </c>
+      <c r="CK3" s="0" t="inlineStr"/>
+      <c r="CL3" s="0" t="inlineStr"/>
+      <c r="CM3" s="0" t="inlineStr"/>
+      <c r="CN3" s="0" t="inlineStr"/>
+      <c r="CO3" s="0" t="inlineStr"/>
+      <c r="CP3" s="0" t="inlineStr"/>
+      <c r="CQ3" s="0" t="inlineStr"/>
+      <c r="CR3" s="0" t="inlineStr"/>
+      <c r="CS3" s="0" t="inlineStr"/>
+      <c r="CT3" s="0" t="inlineStr"/>
+      <c r="CU3" s="0" t="inlineStr"/>
+      <c r="CV3" s="0" t="inlineStr"/>
+      <c r="CW3" s="0" t="inlineStr"/>
+      <c r="CX3" s="0" t="inlineStr"/>
+      <c r="CY3" s="0" t="inlineStr"/>
+      <c r="CZ3" s="0" t="inlineStr"/>
+      <c r="DA3" s="0" t="inlineStr"/>
+      <c r="DB3" s="0" t="inlineStr"/>
+      <c r="DC3" s="0" t="inlineStr"/>
+      <c r="DD3" s="0" t="inlineStr"/>
+      <c r="DE3" s="0" t="inlineStr"/>
+      <c r="DF3" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG3" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH3" s="0" t="inlineStr">
+        <is>
+          <t>0000061050</t>
+        </is>
+      </c>
+      <c r="DJ3" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12" customHeight="1" s="2">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>16297</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr"/>
+      <c r="E4" s="0" t="inlineStr"/>
+      <c r="F4" s="0" t="inlineStr"/>
+      <c r="G4" s="0" t="inlineStr"/>
+      <c r="H4" s="0" t="inlineStr"/>
+      <c r="I4" s="0" t="inlineStr"/>
+      <c r="J4" s="0" t="inlineStr">
+        <is>
+          <t>前立腺癌</t>
+        </is>
+      </c>
+      <c r="K4" s="0" t="inlineStr">
+        <is>
+          <t>前立腺</t>
+        </is>
+      </c>
+      <c r="L4" s="0" t="inlineStr"/>
+      <c r="M4" s="0" t="inlineStr">
+        <is>
+          <t>C61.9</t>
+        </is>
+      </c>
+      <c r="N4" s="0" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O4" s="0" t="inlineStr">
+        <is>
+          <t>M8140/3</t>
+        </is>
+      </c>
+      <c r="P4" s="0" t="inlineStr"/>
+      <c r="Q4" s="0" t="inlineStr"/>
+      <c r="R4" s="0" t="inlineStr"/>
+      <c r="S4" s="0" t="inlineStr"/>
+      <c r="T4" s="0" t="inlineStr"/>
+      <c r="U4" s="0" t="inlineStr"/>
+      <c r="V4" s="0" t="inlineStr"/>
+      <c r="W4" s="0" t="inlineStr"/>
+      <c r="X4" s="0" t="inlineStr"/>
+      <c r="Y4" s="0" t="inlineStr"/>
+      <c r="Z4" s="0" t="inlineStr"/>
+      <c r="AA4" s="0" t="inlineStr"/>
+      <c r="AB4" s="0" t="inlineStr"/>
+      <c r="AC4" s="0" t="inlineStr"/>
+      <c r="AD4" s="0" t="inlineStr"/>
+      <c r="AE4" s="0" t="inlineStr"/>
+      <c r="AF4" s="0" t="inlineStr"/>
+      <c r="AG4" s="0" t="inlineStr"/>
+      <c r="AH4" s="0" t="inlineStr"/>
+      <c r="AI4" s="0" t="inlineStr"/>
+      <c r="AJ4" s="0" t="inlineStr"/>
+      <c r="AK4" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="AL4" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM4" s="0" t="inlineStr">
+        <is>
+          <t>再患</t>
+        </is>
+      </c>
+      <c r="AN4" s="0" t="inlineStr">
+        <is>
+          <t>緩和</t>
+        </is>
+      </c>
+      <c r="AO4" s="0" t="inlineStr"/>
+      <c r="AP4" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ4" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/19</t>
+        </is>
+      </c>
+      <c r="AR4" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/20</t>
+        </is>
+      </c>
+      <c r="AS4" s="0" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="AT4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU4" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV4" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW4" s="0" t="inlineStr"/>
+      <c r="AX4" s="0" t="inlineStr"/>
+      <c r="AY4" s="0" t="inlineStr"/>
+      <c r="AZ4" s="0" t="inlineStr"/>
+      <c r="BA4" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB4" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC4" s="0" t="inlineStr"/>
+      <c r="BD4" s="0" t="inlineStr"/>
+      <c r="BE4" s="0" t="inlineStr"/>
+      <c r="BF4" s="0" t="inlineStr"/>
+      <c r="BG4" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH4" s="0" t="inlineStr"/>
+      <c r="BI4" s="0" t="inlineStr"/>
+      <c r="BJ4" s="0" t="inlineStr"/>
+      <c r="BK4" s="0" t="inlineStr"/>
+      <c r="BL4" s="0" t="inlineStr"/>
+      <c r="BM4" s="0" t="inlineStr"/>
+      <c r="BN4" s="0" t="inlineStr"/>
+      <c r="BO4" s="0" t="inlineStr"/>
+      <c r="BP4" s="0" t="inlineStr"/>
+      <c r="BQ4" s="0" t="inlineStr"/>
+      <c r="BR4" s="0" t="inlineStr"/>
+      <c r="BS4" s="0" t="inlineStr"/>
+      <c r="BT4" s="0" t="inlineStr"/>
+      <c r="BU4" s="0" t="inlineStr"/>
+      <c r="BV4" s="0" t="inlineStr"/>
+      <c r="BW4" s="0" t="inlineStr"/>
+      <c r="BX4" s="0" t="inlineStr"/>
+      <c r="BY4" s="0" t="inlineStr"/>
+      <c r="BZ4" s="0" t="inlineStr"/>
+      <c r="CA4" s="0" t="inlineStr"/>
+      <c r="CB4" s="0" t="inlineStr"/>
+      <c r="CC4" s="0" t="inlineStr"/>
+      <c r="CD4" s="0" t="inlineStr"/>
+      <c r="CE4" s="0" t="inlineStr"/>
+      <c r="CF4" s="0" t="inlineStr"/>
+      <c r="CG4" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH4" s="0" t="inlineStr"/>
+      <c r="CI4" s="0" t="inlineStr">
+        <is>
+          <t>担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ4" s="0" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="CK4" s="0" t="inlineStr"/>
+      <c r="CL4" s="0" t="inlineStr"/>
+      <c r="CM4" s="0" t="inlineStr"/>
+      <c r="CN4" s="0" t="inlineStr"/>
+      <c r="CO4" s="0" t="inlineStr"/>
+      <c r="CP4" s="0" t="inlineStr"/>
+      <c r="CQ4" s="0" t="inlineStr"/>
+      <c r="CR4" s="0" t="inlineStr"/>
+      <c r="CS4" s="0" t="inlineStr"/>
+      <c r="CT4" s="0" t="inlineStr"/>
+      <c r="CU4" s="0" t="inlineStr"/>
+      <c r="CV4" s="0" t="inlineStr"/>
+      <c r="CW4" s="0" t="inlineStr"/>
+      <c r="CX4" s="0" t="inlineStr"/>
+      <c r="CY4" s="0" t="inlineStr"/>
+      <c r="CZ4" s="0" t="inlineStr"/>
+      <c r="DA4" s="0" t="inlineStr"/>
+      <c r="DB4" s="0" t="inlineStr"/>
+      <c r="DC4" s="0" t="inlineStr"/>
+      <c r="DD4" s="0" t="inlineStr"/>
+      <c r="DE4" s="0" t="inlineStr"/>
+      <c r="DF4" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG4" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH4" s="0" t="inlineStr">
+        <is>
+          <t>0000067946</t>
+        </is>
+      </c>
+      <c r="DJ4" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12" customHeight="1" s="2">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>16297</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr"/>
+      <c r="E5" s="0" t="inlineStr"/>
+      <c r="F5" s="0" t="inlineStr"/>
+      <c r="G5" s="0" t="inlineStr"/>
+      <c r="H5" s="0" t="inlineStr"/>
+      <c r="I5" s="0" t="inlineStr"/>
+      <c r="J5" s="0" t="inlineStr">
+        <is>
+          <t>膵癌</t>
+        </is>
+      </c>
+      <c r="K5" s="0" t="inlineStr">
+        <is>
+          <t>膵; NOS</t>
+        </is>
+      </c>
+      <c r="L5" s="0" t="inlineStr"/>
+      <c r="M5" s="0" t="inlineStr">
+        <is>
+          <t>C25.9</t>
+        </is>
+      </c>
+      <c r="N5" s="0" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O5" s="0" t="inlineStr">
+        <is>
+          <t>M8140/3</t>
+        </is>
+      </c>
+      <c r="P5" s="0" t="inlineStr"/>
+      <c r="Q5" s="0" t="inlineStr"/>
+      <c r="R5" s="0" t="inlineStr"/>
+      <c r="S5" s="0" t="inlineStr"/>
+      <c r="T5" s="0" t="inlineStr"/>
+      <c r="U5" s="0" t="inlineStr"/>
+      <c r="V5" s="0" t="inlineStr"/>
+      <c r="W5" s="0" t="inlineStr"/>
+      <c r="X5" s="0" t="inlineStr"/>
+      <c r="Y5" s="0" t="inlineStr"/>
+      <c r="Z5" s="0" t="inlineStr"/>
+      <c r="AA5" s="0" t="inlineStr"/>
+      <c r="AB5" s="0" t="inlineStr"/>
+      <c r="AC5" s="0" t="inlineStr"/>
+      <c r="AD5" s="0" t="inlineStr"/>
+      <c r="AE5" s="0" t="inlineStr"/>
+      <c r="AF5" s="0" t="inlineStr"/>
+      <c r="AG5" s="0" t="inlineStr"/>
+      <c r="AH5" s="0" t="inlineStr"/>
+      <c r="AI5" s="0" t="inlineStr"/>
+      <c r="AJ5" s="0" t="inlineStr"/>
+      <c r="AK5" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="AL5" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM5" s="0" t="inlineStr">
+        <is>
+          <t>再患</t>
+        </is>
+      </c>
+      <c r="AN5" s="0" t="inlineStr">
+        <is>
+          <t>緩和</t>
+        </is>
+      </c>
+      <c r="AO5" s="0" t="inlineStr"/>
+      <c r="AP5" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ5" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/24</t>
+        </is>
+      </c>
+      <c r="AR5" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/25</t>
+        </is>
+      </c>
+      <c r="AS5" s="0" t="inlineStr">
+        <is>
+          <t>24.00</t>
+        </is>
+      </c>
+      <c r="AT5" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AU5" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="AV5" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW5" s="0" t="inlineStr"/>
+      <c r="AX5" s="0" t="inlineStr"/>
+      <c r="AY5" s="0" t="inlineStr"/>
+      <c r="AZ5" s="0" t="inlineStr"/>
+      <c r="BA5" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB5" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC5" s="0" t="inlineStr"/>
+      <c r="BD5" s="0" t="inlineStr"/>
+      <c r="BE5" s="0" t="inlineStr"/>
+      <c r="BF5" s="0" t="inlineStr"/>
+      <c r="BG5" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH5" s="0" t="inlineStr"/>
+      <c r="BI5" s="0" t="inlineStr"/>
+      <c r="BJ5" s="0" t="inlineStr"/>
+      <c r="BK5" s="0" t="inlineStr"/>
+      <c r="BL5" s="0" t="inlineStr"/>
+      <c r="BM5" s="0" t="inlineStr"/>
+      <c r="BN5" s="0" t="inlineStr"/>
+      <c r="BO5" s="0" t="inlineStr"/>
+      <c r="BP5" s="0" t="inlineStr"/>
+      <c r="BQ5" s="0" t="inlineStr"/>
+      <c r="BR5" s="0" t="inlineStr"/>
+      <c r="BS5" s="0" t="inlineStr"/>
+      <c r="BT5" s="0" t="inlineStr"/>
+      <c r="BU5" s="0" t="inlineStr"/>
+      <c r="BV5" s="0" t="inlineStr"/>
+      <c r="BW5" s="0" t="inlineStr"/>
+      <c r="BX5" s="0" t="inlineStr"/>
+      <c r="BY5" s="0" t="inlineStr"/>
+      <c r="BZ5" s="0" t="inlineStr"/>
+      <c r="CA5" s="0" t="inlineStr"/>
+      <c r="CB5" s="0" t="inlineStr"/>
+      <c r="CC5" s="0" t="inlineStr"/>
+      <c r="CD5" s="0" t="inlineStr"/>
+      <c r="CE5" s="0" t="inlineStr"/>
+      <c r="CF5" s="0" t="inlineStr"/>
+      <c r="CG5" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂(8日以上の中断あり)</t>
+        </is>
+      </c>
+      <c r="CH5" s="0" t="inlineStr"/>
+      <c r="CI5" s="0" t="inlineStr">
+        <is>
+          <t>7.消息不明</t>
+        </is>
+      </c>
+      <c r="CJ5" s="0" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="CK5" s="0" t="inlineStr"/>
+      <c r="CL5" s="0" t="inlineStr"/>
+      <c r="CM5" s="0" t="inlineStr"/>
+      <c r="CN5" s="0" t="inlineStr"/>
+      <c r="CO5" s="0" t="inlineStr"/>
+      <c r="CP5" s="0" t="inlineStr"/>
+      <c r="CQ5" s="0" t="inlineStr"/>
+      <c r="CR5" s="0" t="inlineStr"/>
+      <c r="CS5" s="0" t="inlineStr"/>
+      <c r="CT5" s="0" t="inlineStr"/>
+      <c r="CU5" s="0" t="inlineStr"/>
+      <c r="CV5" s="0" t="inlineStr"/>
+      <c r="CW5" s="0" t="inlineStr"/>
+      <c r="CX5" s="0" t="inlineStr"/>
+      <c r="CY5" s="0" t="inlineStr"/>
+      <c r="CZ5" s="0" t="inlineStr"/>
+      <c r="DA5" s="0" t="inlineStr"/>
+      <c r="DB5" s="0" t="inlineStr"/>
+      <c r="DC5" s="0" t="inlineStr"/>
+      <c r="DD5" s="0" t="inlineStr"/>
+      <c r="DE5" s="0" t="inlineStr"/>
+      <c r="DF5" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG5" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH5" s="0" t="inlineStr">
+        <is>
+          <t>0000067946</t>
+        </is>
+      </c>
+      <c r="DJ5" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12" customHeight="1" s="2">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>16754</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr"/>
+      <c r="E6" s="0" t="inlineStr"/>
+      <c r="F6" s="0" t="inlineStr"/>
+      <c r="G6" s="0" t="inlineStr"/>
+      <c r="H6" s="0" t="inlineStr"/>
+      <c r="I6" s="0" t="inlineStr"/>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>卵巣癌卵巣の悪性新生物</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>卵巣</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>C56.9</t>
+        </is>
+      </c>
+      <c r="N6" s="0" t="inlineStr">
+        <is>
+          <t>Endometrioid adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O6" s="0" t="inlineStr">
+        <is>
+          <t>M8380/3</t>
+        </is>
+      </c>
+      <c r="P6" s="0" t="inlineStr"/>
+      <c r="Q6" s="0" t="inlineStr"/>
+      <c r="R6" s="0" t="inlineStr"/>
+      <c r="S6" s="0" t="inlineStr"/>
+      <c r="T6" s="0" t="inlineStr"/>
+      <c r="U6" s="0" t="inlineStr"/>
+      <c r="V6" s="0" t="inlineStr"/>
+      <c r="W6" s="0" t="inlineStr"/>
+      <c r="X6" s="0" t="inlineStr"/>
+      <c r="Y6" s="0" t="inlineStr"/>
+      <c r="Z6" s="0" t="inlineStr"/>
+      <c r="AA6" s="0" t="inlineStr"/>
+      <c r="AB6" s="0" t="inlineStr"/>
+      <c r="AC6" s="0" t="inlineStr"/>
+      <c r="AD6" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="AE6" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AF6" s="0" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AG6" s="0" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="AH6" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="AI6" s="0" t="inlineStr">
+        <is>
+          <t>SIIIA</t>
+        </is>
+      </c>
+      <c r="AJ6" s="0" t="inlineStr"/>
+      <c r="AK6" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="AL6" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM6" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN6" s="0" t="inlineStr">
+        <is>
+          <t>術後</t>
+        </is>
+      </c>
+      <c r="AO6" s="0" t="inlineStr"/>
+      <c r="AP6" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ6" s="0" t="inlineStr">
+        <is>
+          <t>2024/11/05</t>
+        </is>
+      </c>
+      <c r="AR6" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/09</t>
+        </is>
+      </c>
+      <c r="AS6" s="0" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="AT6" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AU6" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AV6" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW6" s="0" t="inlineStr"/>
+      <c r="AX6" s="0" t="inlineStr"/>
+      <c r="AY6" s="0" t="inlineStr">
+        <is>
+          <t>乳房</t>
+        </is>
+      </c>
+      <c r="AZ6" s="0" t="inlineStr">
+        <is>
+          <t>C50.9</t>
+        </is>
+      </c>
+      <c r="BA6" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB6" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC6" s="0" t="inlineStr"/>
+      <c r="BD6" s="0" t="inlineStr"/>
+      <c r="BE6" s="0" t="inlineStr"/>
+      <c r="BF6" s="0" t="inlineStr"/>
+      <c r="BG6" s="0" t="inlineStr"/>
+      <c r="BH6" s="0" t="inlineStr"/>
+      <c r="BI6" s="0" t="inlineStr">
+        <is>
+          <t>複雑</t>
+        </is>
+      </c>
+      <c r="BJ6" s="0" t="inlineStr"/>
+      <c r="BK6" s="0" t="inlineStr"/>
+      <c r="BL6" s="0" t="inlineStr"/>
+      <c r="BM6" s="0" t="inlineStr"/>
+      <c r="BN6" s="0" t="inlineStr"/>
+      <c r="BO6" s="0" t="inlineStr"/>
+      <c r="BP6" s="0" t="inlineStr"/>
+      <c r="BQ6" s="0" t="inlineStr"/>
+      <c r="BR6" s="0" t="inlineStr"/>
+      <c r="BS6" s="0" t="inlineStr"/>
+      <c r="BT6" s="0" t="inlineStr"/>
+      <c r="BU6" s="0" t="inlineStr"/>
+      <c r="BV6" s="0" t="inlineStr"/>
+      <c r="BW6" s="0" t="inlineStr"/>
+      <c r="BX6" s="0" t="inlineStr"/>
+      <c r="BY6" s="0" t="inlineStr"/>
+      <c r="BZ6" s="0" t="inlineStr"/>
+      <c r="CA6" s="0" t="inlineStr"/>
+      <c r="CB6" s="0" t="inlineStr"/>
+      <c r="CC6" s="0" t="inlineStr"/>
+      <c r="CD6" s="0" t="inlineStr"/>
+      <c r="CE6" s="0" t="inlineStr"/>
+      <c r="CF6" s="0" t="inlineStr"/>
+      <c r="CG6" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH6" s="0" t="inlineStr"/>
+      <c r="CI6" s="0" t="inlineStr"/>
+      <c r="CJ6" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/09</t>
+        </is>
+      </c>
+      <c r="CK6" s="0" t="inlineStr"/>
+      <c r="CL6" s="0" t="inlineStr"/>
+      <c r="CM6" s="0" t="inlineStr"/>
+      <c r="CN6" s="0" t="inlineStr"/>
+      <c r="CO6" s="0" t="inlineStr"/>
+      <c r="CP6" s="0" t="inlineStr"/>
+      <c r="CQ6" s="0" t="inlineStr"/>
+      <c r="CR6" s="0" t="inlineStr"/>
+      <c r="CS6" s="0" t="inlineStr"/>
+      <c r="CT6" s="0" t="inlineStr"/>
+      <c r="CU6" s="0" t="inlineStr"/>
+      <c r="CV6" s="0" t="inlineStr"/>
+      <c r="CW6" s="0" t="inlineStr"/>
+      <c r="CX6" s="0" t="inlineStr"/>
+      <c r="CY6" s="0" t="inlineStr"/>
+      <c r="CZ6" s="0" t="inlineStr"/>
+      <c r="DA6" s="0" t="inlineStr"/>
+      <c r="DB6" s="0" t="inlineStr"/>
+      <c r="DC6" s="0" t="inlineStr"/>
+      <c r="DD6" s="0" t="inlineStr"/>
+      <c r="DE6" s="0" t="inlineStr"/>
+      <c r="DF6" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG6" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH6" s="0" t="inlineStr">
+        <is>
+          <t>0000078980</t>
+        </is>
+      </c>
+      <c r="DJ6" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12" customHeight="1" s="2">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>16754</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr"/>
+      <c r="E7" s="0" t="inlineStr"/>
+      <c r="F7" s="0" t="inlineStr"/>
+      <c r="G7" s="0" t="inlineStr"/>
+      <c r="H7" s="0" t="inlineStr"/>
+      <c r="I7" s="0" t="inlineStr"/>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>卵巣癌卵巣の悪性新生物</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>卵巣</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>C56.9</t>
+        </is>
+      </c>
+      <c r="N7" s="0" t="inlineStr">
+        <is>
+          <t>Endometrioid adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O7" s="0" t="inlineStr">
+        <is>
+          <t>M8380/3</t>
+        </is>
+      </c>
+      <c r="P7" s="0" t="inlineStr"/>
+      <c r="Q7" s="0" t="inlineStr"/>
+      <c r="R7" s="0" t="inlineStr"/>
+      <c r="S7" s="0" t="inlineStr"/>
+      <c r="T7" s="0" t="inlineStr"/>
+      <c r="U7" s="0" t="inlineStr"/>
+      <c r="V7" s="0" t="inlineStr"/>
+      <c r="W7" s="0" t="inlineStr"/>
+      <c r="X7" s="0" t="inlineStr"/>
+      <c r="Y7" s="0" t="inlineStr"/>
+      <c r="Z7" s="0" t="inlineStr"/>
+      <c r="AA7" s="0" t="inlineStr"/>
+      <c r="AB7" s="0" t="inlineStr"/>
+      <c r="AC7" s="0" t="inlineStr"/>
+      <c r="AD7" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="AE7" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AF7" s="0" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="AG7" s="0" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="AH7" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="AI7" s="0" t="inlineStr">
+        <is>
+          <t>SIIIA</t>
+        </is>
+      </c>
+      <c r="AJ7" s="0" t="inlineStr"/>
+      <c r="AK7" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="AL7" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM7" s="0" t="inlineStr">
+        <is>
+          <t>再患</t>
+        </is>
+      </c>
+      <c r="AN7" s="0" t="inlineStr">
+        <is>
+          <t>術後</t>
+        </is>
+      </c>
+      <c r="AO7" s="0" t="inlineStr"/>
+      <c r="AP7" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ7" s="0" t="inlineStr">
+        <is>
+          <t>2024/11/05</t>
+        </is>
+      </c>
+      <c r="AR7" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/09</t>
+        </is>
+      </c>
+      <c r="AS7" s="0" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="AT7" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AU7" s="0" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AV7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW7" s="0" t="inlineStr"/>
+      <c r="AX7" s="0" t="inlineStr"/>
+      <c r="AY7" s="0" t="inlineStr">
+        <is>
+          <t>頭部;顔面及び頚部のリンパ節</t>
+        </is>
+      </c>
+      <c r="AZ7" s="0" t="inlineStr">
+        <is>
+          <t>C77.0</t>
+        </is>
+      </c>
+      <c r="BA7" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB7" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC7" s="0" t="inlineStr"/>
+      <c r="BD7" s="0" t="inlineStr"/>
+      <c r="BE7" s="0" t="inlineStr"/>
+      <c r="BF7" s="0" t="inlineStr"/>
+      <c r="BG7" s="0" t="inlineStr"/>
+      <c r="BH7" s="0" t="inlineStr"/>
+      <c r="BI7" s="0" t="inlineStr"/>
+      <c r="BJ7" s="0" t="inlineStr"/>
+      <c r="BK7" s="0" t="inlineStr"/>
+      <c r="BL7" s="0" t="inlineStr"/>
+      <c r="BM7" s="0" t="inlineStr"/>
+      <c r="BN7" s="0" t="inlineStr"/>
+      <c r="BO7" s="0" t="inlineStr"/>
+      <c r="BP7" s="0" t="inlineStr"/>
+      <c r="BQ7" s="0" t="inlineStr"/>
+      <c r="BR7" s="0" t="inlineStr"/>
+      <c r="BS7" s="0" t="inlineStr"/>
+      <c r="BT7" s="0" t="inlineStr"/>
+      <c r="BU7" s="0" t="inlineStr"/>
+      <c r="BV7" s="0" t="inlineStr"/>
+      <c r="BW7" s="0" t="inlineStr"/>
+      <c r="BX7" s="0" t="inlineStr"/>
+      <c r="BY7" s="0" t="inlineStr"/>
+      <c r="BZ7" s="0" t="inlineStr"/>
+      <c r="CA7" s="0" t="inlineStr"/>
+      <c r="CB7" s="0" t="inlineStr"/>
+      <c r="CC7" s="0" t="inlineStr"/>
+      <c r="CD7" s="0" t="inlineStr"/>
+      <c r="CE7" s="0" t="inlineStr"/>
+      <c r="CF7" s="0" t="inlineStr"/>
+      <c r="CG7" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH7" s="0" t="inlineStr"/>
+      <c r="CI7" s="0" t="inlineStr"/>
+      <c r="CJ7" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/09</t>
+        </is>
+      </c>
+      <c r="CK7" s="0" t="inlineStr"/>
+      <c r="CL7" s="0" t="inlineStr"/>
+      <c r="CM7" s="0" t="inlineStr"/>
+      <c r="CN7" s="0" t="inlineStr"/>
+      <c r="CO7" s="0" t="inlineStr"/>
+      <c r="CP7" s="0" t="inlineStr"/>
+      <c r="CQ7" s="0" t="inlineStr"/>
+      <c r="CR7" s="0" t="inlineStr"/>
+      <c r="CS7" s="0" t="inlineStr"/>
+      <c r="CT7" s="0" t="inlineStr"/>
+      <c r="CU7" s="0" t="inlineStr"/>
+      <c r="CV7" s="0" t="inlineStr"/>
+      <c r="CW7" s="0" t="inlineStr"/>
+      <c r="CX7" s="0" t="inlineStr"/>
+      <c r="CY7" s="0" t="inlineStr"/>
+      <c r="CZ7" s="0" t="inlineStr"/>
+      <c r="DA7" s="0" t="inlineStr"/>
+      <c r="DB7" s="0" t="inlineStr"/>
+      <c r="DC7" s="0" t="inlineStr"/>
+      <c r="DD7" s="0" t="inlineStr"/>
+      <c r="DE7" s="0" t="inlineStr"/>
+      <c r="DF7" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG7" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH7" s="0" t="inlineStr">
+        <is>
+          <t>0000078980</t>
+        </is>
+      </c>
+      <c r="DJ7" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12" customHeight="1" s="2">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>16552</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr"/>
+      <c r="E8" s="0" t="inlineStr"/>
+      <c r="F8" s="0" t="inlineStr"/>
+      <c r="G8" s="0" t="inlineStr"/>
+      <c r="H8" s="0" t="inlineStr"/>
+      <c r="I8" s="0" t="inlineStr"/>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>卵巣癌卵巣の悪性新生物</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>卵巣</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>C56.9</t>
+        </is>
+      </c>
+      <c r="N8" s="0" t="inlineStr">
+        <is>
+          <t>Endometrioid adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O8" s="0" t="inlineStr">
+        <is>
+          <t>M8380/3</t>
+        </is>
+      </c>
+      <c r="P8" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="Q8" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="R8" s="0" t="inlineStr">
+        <is>
+          <t>T3a</t>
+        </is>
+      </c>
+      <c r="S8" s="0" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="T8" s="0" t="inlineStr">
+        <is>
+          <t>M1b</t>
+        </is>
+      </c>
+      <c r="U8" s="0" t="inlineStr">
+        <is>
+          <t>SIV</t>
+        </is>
+      </c>
+      <c r="V8" s="0" t="inlineStr"/>
+      <c r="W8" s="0" t="inlineStr"/>
+      <c r="X8" s="0" t="inlineStr"/>
+      <c r="Y8" s="0" t="inlineStr"/>
+      <c r="Z8" s="0" t="inlineStr"/>
+      <c r="AA8" s="0" t="inlineStr"/>
+      <c r="AB8" s="0" t="inlineStr"/>
+      <c r="AC8" s="0" t="inlineStr"/>
+      <c r="AD8" s="0" t="inlineStr"/>
+      <c r="AE8" s="0" t="inlineStr"/>
+      <c r="AF8" s="0" t="inlineStr"/>
+      <c r="AG8" s="0" t="inlineStr"/>
+      <c r="AH8" s="0" t="inlineStr"/>
+      <c r="AI8" s="0" t="inlineStr"/>
+      <c r="AJ8" s="0" t="inlineStr"/>
+      <c r="AK8" s="0" t="inlineStr">
+        <is>
+          <t>泌尿器系腫瘍</t>
+        </is>
+      </c>
+      <c r="AL8" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM8" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr"/>
+      <c r="AP8" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ8" s="0" t="inlineStr">
+        <is>
+          <t>2024/05/16</t>
+        </is>
+      </c>
+      <c r="AR8" s="0" t="inlineStr">
+        <is>
+          <t>2024/05/22</t>
+        </is>
+      </c>
+      <c r="AS8" s="0" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="AT8" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AU8" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AV8" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW8" s="0" t="inlineStr"/>
+      <c r="AX8" s="0" t="inlineStr"/>
+      <c r="AY8" s="0" t="inlineStr">
+        <is>
+          <t>前立腺</t>
+        </is>
+      </c>
+      <c r="AZ8" s="0" t="inlineStr">
+        <is>
+          <t>C61.9</t>
+        </is>
+      </c>
+      <c r="BA8" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB8" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC8" s="0" t="inlineStr"/>
+      <c r="BD8" s="0" t="inlineStr"/>
+      <c r="BE8" s="0" t="inlineStr"/>
+      <c r="BF8" s="0" t="inlineStr"/>
+      <c r="BG8" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH8" s="0" t="inlineStr"/>
+      <c r="BI8" s="0" t="inlineStr"/>
+      <c r="BJ8" s="0" t="inlineStr"/>
+      <c r="BK8" s="0" t="inlineStr"/>
+      <c r="BL8" s="0" t="inlineStr"/>
+      <c r="BM8" s="0" t="inlineStr"/>
+      <c r="BN8" s="0" t="inlineStr"/>
+      <c r="BO8" s="0" t="inlineStr"/>
+      <c r="BP8" s="0" t="inlineStr"/>
+      <c r="BQ8" s="0" t="inlineStr"/>
+      <c r="BR8" s="0" t="inlineStr"/>
+      <c r="BS8" s="0" t="inlineStr"/>
+      <c r="BT8" s="0" t="inlineStr"/>
+      <c r="BU8" s="0" t="inlineStr"/>
+      <c r="BV8" s="0" t="inlineStr"/>
+      <c r="BW8" s="0" t="inlineStr"/>
+      <c r="BX8" s="0" t="inlineStr"/>
+      <c r="BY8" s="0" t="inlineStr"/>
+      <c r="BZ8" s="0" t="inlineStr"/>
+      <c r="CA8" s="0" t="inlineStr"/>
+      <c r="CB8" s="0" t="inlineStr"/>
+      <c r="CC8" s="0" t="inlineStr"/>
+      <c r="CD8" s="0" t="inlineStr"/>
+      <c r="CE8" s="0" t="inlineStr"/>
+      <c r="CF8" s="0" t="inlineStr"/>
+      <c r="CG8" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH8" s="0" t="inlineStr"/>
+      <c r="CI8" s="0" t="inlineStr">
+        <is>
+          <t>非担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ8" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/14</t>
+        </is>
+      </c>
+      <c r="CK8" s="0" t="inlineStr"/>
+      <c r="CL8" s="0" t="inlineStr"/>
+      <c r="CM8" s="0" t="inlineStr"/>
+      <c r="CN8" s="0" t="inlineStr"/>
+      <c r="CO8" s="0" t="inlineStr"/>
+      <c r="CP8" s="0" t="inlineStr"/>
+      <c r="CQ8" s="0" t="inlineStr"/>
+      <c r="CR8" s="0" t="inlineStr"/>
+      <c r="CS8" s="0" t="inlineStr"/>
+      <c r="CT8" s="0" t="inlineStr"/>
+      <c r="CU8" s="0" t="inlineStr"/>
+      <c r="CV8" s="0" t="inlineStr"/>
+      <c r="CW8" s="0" t="inlineStr"/>
+      <c r="CX8" s="0" t="inlineStr"/>
+      <c r="CY8" s="0" t="inlineStr"/>
+      <c r="CZ8" s="0" t="inlineStr"/>
+      <c r="DA8" s="0" t="inlineStr"/>
+      <c r="DB8" s="0" t="inlineStr"/>
+      <c r="DC8" s="0" t="inlineStr"/>
+      <c r="DD8" s="0" t="inlineStr"/>
+      <c r="DE8" s="0" t="inlineStr"/>
+      <c r="DF8" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG8" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH8" s="0" t="inlineStr">
+        <is>
+          <t>0000096130</t>
+        </is>
+      </c>
+      <c r="DJ8" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="12" customHeight="1" s="2">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>16536</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr"/>
+      <c r="E9" s="0" t="inlineStr"/>
+      <c r="F9" s="0" t="inlineStr"/>
+      <c r="G9" s="0" t="inlineStr"/>
+      <c r="H9" s="0" t="inlineStr"/>
+      <c r="I9" s="0" t="inlineStr"/>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>乳頭部及び乳輪の悪性新生物</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>乳頭部及び乳輪の悪性新生物</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>C50.0</t>
+        </is>
+      </c>
+      <c r="N9" s="0" t="inlineStr">
+        <is>
+          <t>Infiltrating ductal carcinoma</t>
+        </is>
+      </c>
+      <c r="O9" s="0" t="inlineStr">
+        <is>
+          <t>M8521/3</t>
+        </is>
+      </c>
+      <c r="P9" s="0" t="inlineStr"/>
+      <c r="Q9" s="0" t="inlineStr"/>
+      <c r="R9" s="0" t="inlineStr"/>
+      <c r="S9" s="0" t="inlineStr"/>
+      <c r="T9" s="0" t="inlineStr"/>
+      <c r="U9" s="0" t="inlineStr"/>
+      <c r="V9" s="0" t="inlineStr"/>
+      <c r="W9" s="0" t="inlineStr"/>
+      <c r="X9" s="0" t="inlineStr"/>
+      <c r="Y9" s="0" t="inlineStr"/>
+      <c r="Z9" s="0" t="inlineStr"/>
+      <c r="AA9" s="0" t="inlineStr"/>
+      <c r="AB9" s="0" t="inlineStr"/>
+      <c r="AC9" s="0" t="inlineStr"/>
+      <c r="AD9" s="0" t="inlineStr"/>
+      <c r="AE9" s="0" t="inlineStr"/>
+      <c r="AF9" s="0" t="inlineStr"/>
+      <c r="AG9" s="0" t="inlineStr"/>
+      <c r="AH9" s="0" t="inlineStr"/>
+      <c r="AI9" s="0" t="inlineStr"/>
+      <c r="AJ9" s="0" t="inlineStr"/>
+      <c r="AK9" s="0" t="inlineStr">
+        <is>
+          <t>頭頸部腫瘍</t>
+        </is>
+      </c>
+      <c r="AL9" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM9" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN9" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO9" s="0" t="inlineStr"/>
+      <c r="AP9" s="0" t="inlineStr">
+        <is>
+          <t>入院</t>
+        </is>
+      </c>
+      <c r="AQ9" s="0" t="inlineStr">
+        <is>
+          <t>2024/03/13</t>
+        </is>
+      </c>
+      <c r="AR9" s="0" t="inlineStr">
+        <is>
+          <t>2024/04/30</t>
+        </is>
+      </c>
+      <c r="AS9" s="0" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="AT9" s="0" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="AU9" s="0" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AV9" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW9" s="0" t="inlineStr"/>
+      <c r="AX9" s="0" t="inlineStr"/>
+      <c r="AY9" s="0" t="inlineStr">
+        <is>
+          <t>中咽頭後壁の悪性新生物</t>
+        </is>
+      </c>
+      <c r="AZ9" s="0" t="inlineStr">
+        <is>
+          <t>C10.3</t>
+        </is>
+      </c>
+      <c r="BA9" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB9" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC9" s="0" t="inlineStr"/>
+      <c r="BD9" s="0" t="inlineStr"/>
+      <c r="BE9" s="0" t="inlineStr"/>
+      <c r="BF9" s="0" t="inlineStr"/>
+      <c r="BG9" s="0" t="inlineStr">
+        <is>
+          <t>IMRT：頭頚部</t>
+        </is>
+      </c>
+      <c r="BH9" s="0" t="inlineStr">
+        <is>
+          <t>画像誘導放射線治療加算</t>
+        </is>
+      </c>
+      <c r="BI9" s="0" t="inlineStr">
+        <is>
+          <t>IMRT</t>
+        </is>
+      </c>
+      <c r="BJ9" s="0" t="inlineStr"/>
+      <c r="BK9" s="0" t="inlineStr"/>
+      <c r="BL9" s="0" t="inlineStr"/>
+      <c r="BM9" s="0" t="inlineStr"/>
+      <c r="BN9" s="0" t="inlineStr"/>
+      <c r="BO9" s="0" t="inlineStr"/>
+      <c r="BP9" s="0" t="inlineStr"/>
+      <c r="BQ9" s="0" t="inlineStr"/>
+      <c r="BR9" s="0" t="inlineStr"/>
+      <c r="BS9" s="0" t="inlineStr"/>
+      <c r="BT9" s="0" t="inlineStr"/>
+      <c r="BU9" s="0" t="inlineStr"/>
+      <c r="BV9" s="0" t="inlineStr"/>
+      <c r="BW9" s="0" t="inlineStr"/>
+      <c r="BX9" s="0" t="inlineStr"/>
+      <c r="BY9" s="0" t="inlineStr"/>
+      <c r="BZ9" s="0" t="inlineStr"/>
+      <c r="CA9" s="0" t="inlineStr"/>
+      <c r="CB9" s="0" t="inlineStr"/>
+      <c r="CC9" s="0" t="inlineStr"/>
+      <c r="CD9" s="0" t="inlineStr"/>
+      <c r="CE9" s="0" t="inlineStr"/>
+      <c r="CF9" s="0" t="inlineStr"/>
+      <c r="CG9" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH9" s="0" t="inlineStr"/>
+      <c r="CI9" s="0" t="inlineStr"/>
+      <c r="CJ9" s="0" t="inlineStr">
+        <is>
+          <t>2024/04/30</t>
+        </is>
+      </c>
+      <c r="CK9" s="0" t="inlineStr"/>
+      <c r="CL9" s="0" t="inlineStr"/>
+      <c r="CM9" s="0" t="inlineStr"/>
+      <c r="CN9" s="0" t="inlineStr"/>
+      <c r="CO9" s="0" t="inlineStr"/>
+      <c r="CP9" s="0" t="inlineStr"/>
+      <c r="CQ9" s="0" t="inlineStr"/>
+      <c r="CR9" s="0" t="inlineStr"/>
+      <c r="CS9" s="0" t="inlineStr"/>
+      <c r="CT9" s="0" t="inlineStr"/>
+      <c r="CU9" s="0" t="inlineStr"/>
+      <c r="CV9" s="0" t="inlineStr"/>
+      <c r="CW9" s="0" t="inlineStr"/>
+      <c r="CX9" s="0" t="inlineStr"/>
+      <c r="CY9" s="0" t="inlineStr"/>
+      <c r="CZ9" s="0" t="inlineStr"/>
+      <c r="DA9" s="0" t="inlineStr"/>
+      <c r="DB9" s="0" t="inlineStr"/>
+      <c r="DC9" s="0" t="inlineStr"/>
+      <c r="DD9" s="0" t="inlineStr"/>
+      <c r="DE9" s="0" t="inlineStr"/>
+      <c r="DF9" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG9" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH9" s="0" t="inlineStr">
+        <is>
+          <t>0000119326</t>
+        </is>
+      </c>
+      <c r="DJ9" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="12" customHeight="1" s="2">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>16473</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr"/>
+      <c r="E10" s="0" t="inlineStr"/>
+      <c r="F10" s="0" t="inlineStr"/>
+      <c r="G10" s="0" t="inlineStr"/>
+      <c r="H10" s="0" t="inlineStr"/>
+      <c r="I10" s="0" t="inlineStr"/>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>肺癌</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>肺; NOS</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>C34.9</t>
+        </is>
+      </c>
+      <c r="N10" s="0" t="inlineStr">
+        <is>
+          <t>Squamous cell carcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O10" s="0" t="inlineStr">
+        <is>
+          <t>M8070/3</t>
+        </is>
+      </c>
+      <c r="P10" s="0" t="inlineStr"/>
+      <c r="Q10" s="0" t="inlineStr"/>
+      <c r="R10" s="0" t="inlineStr"/>
+      <c r="S10" s="0" t="inlineStr"/>
+      <c r="T10" s="0" t="inlineStr"/>
+      <c r="U10" s="0" t="inlineStr"/>
+      <c r="V10" s="0" t="inlineStr"/>
+      <c r="W10" s="0" t="inlineStr"/>
+      <c r="X10" s="0" t="inlineStr"/>
+      <c r="Y10" s="0" t="inlineStr"/>
+      <c r="Z10" s="0" t="inlineStr"/>
+      <c r="AA10" s="0" t="inlineStr"/>
+      <c r="AB10" s="0" t="inlineStr"/>
+      <c r="AC10" s="0" t="inlineStr"/>
+      <c r="AD10" s="0" t="inlineStr"/>
+      <c r="AE10" s="0" t="inlineStr"/>
+      <c r="AF10" s="0" t="inlineStr"/>
+      <c r="AG10" s="0" t="inlineStr"/>
+      <c r="AH10" s="0" t="inlineStr"/>
+      <c r="AI10" s="0" t="inlineStr"/>
+      <c r="AJ10" s="0" t="inlineStr"/>
+      <c r="AK10" s="0" t="inlineStr">
+        <is>
+          <t>造血器リンパ系腫瘍</t>
+        </is>
+      </c>
+      <c r="AL10" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM10" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN10" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO10" s="0" t="inlineStr"/>
+      <c r="AP10" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ10" s="0" t="inlineStr">
+        <is>
+          <t>2024/01/22</t>
+        </is>
+      </c>
+      <c r="AR10" s="0" t="inlineStr">
+        <is>
+          <t>2024/02/09</t>
+        </is>
+      </c>
+      <c r="AS10" s="0" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="AT10" s="0" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="AU10" s="0" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="AV10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW10" s="0" t="inlineStr"/>
+      <c r="AX10" s="0" t="inlineStr"/>
+      <c r="AY10" s="0" t="inlineStr">
+        <is>
+          <t>リンパ節; NOS</t>
+        </is>
+      </c>
+      <c r="AZ10" s="0" t="inlineStr">
+        <is>
+          <t>C77.9</t>
+        </is>
+      </c>
+      <c r="BA10" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB10" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC10" s="0" t="inlineStr"/>
+      <c r="BD10" s="0" t="inlineStr"/>
+      <c r="BE10" s="0" t="inlineStr"/>
+      <c r="BF10" s="0" t="inlineStr"/>
+      <c r="BG10" s="0" t="inlineStr">
+        <is>
+          <t>IMRT：その他</t>
+        </is>
+      </c>
+      <c r="BH10" s="0" t="inlineStr">
+        <is>
+          <t>画像誘導放射線治療加算</t>
+        </is>
+      </c>
+      <c r="BI10" s="0" t="inlineStr">
+        <is>
+          <t>IMRT</t>
+        </is>
+      </c>
+      <c r="BJ10" s="0" t="inlineStr"/>
+      <c r="BK10" s="0" t="inlineStr"/>
+      <c r="BL10" s="0" t="inlineStr"/>
+      <c r="BM10" s="0" t="inlineStr"/>
+      <c r="BN10" s="0" t="inlineStr"/>
+      <c r="BO10" s="0" t="inlineStr"/>
+      <c r="BP10" s="0" t="inlineStr"/>
+      <c r="BQ10" s="0" t="inlineStr"/>
+      <c r="BR10" s="0" t="inlineStr"/>
+      <c r="BS10" s="0" t="inlineStr"/>
+      <c r="BT10" s="0" t="inlineStr"/>
+      <c r="BU10" s="0" t="inlineStr"/>
+      <c r="BV10" s="0" t="inlineStr"/>
+      <c r="BW10" s="0" t="inlineStr"/>
+      <c r="BX10" s="0" t="inlineStr"/>
+      <c r="BY10" s="0" t="inlineStr"/>
+      <c r="BZ10" s="0" t="inlineStr"/>
+      <c r="CA10" s="0" t="inlineStr"/>
+      <c r="CB10" s="0" t="inlineStr"/>
+      <c r="CC10" s="0" t="inlineStr"/>
+      <c r="CD10" s="0" t="inlineStr"/>
+      <c r="CE10" s="0" t="inlineStr"/>
+      <c r="CF10" s="0" t="inlineStr"/>
+      <c r="CG10" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH10" s="0" t="inlineStr"/>
+      <c r="CI10" s="0" t="inlineStr">
+        <is>
+          <t>非担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ10" s="0" t="inlineStr">
+        <is>
+          <t>2024/10/28</t>
+        </is>
+      </c>
+      <c r="CK10" s="0" t="inlineStr"/>
+      <c r="CL10" s="0" t="inlineStr"/>
+      <c r="CM10" s="0" t="inlineStr"/>
+      <c r="CN10" s="0" t="inlineStr"/>
+      <c r="CO10" s="0" t="inlineStr"/>
+      <c r="CP10" s="0" t="inlineStr"/>
+      <c r="CQ10" s="0" t="inlineStr"/>
+      <c r="CR10" s="0" t="inlineStr"/>
+      <c r="CS10" s="0" t="inlineStr"/>
+      <c r="CT10" s="0" t="inlineStr"/>
+      <c r="CU10" s="0" t="inlineStr"/>
+      <c r="CV10" s="0" t="inlineStr"/>
+      <c r="CW10" s="0" t="inlineStr"/>
+      <c r="CX10" s="0" t="inlineStr"/>
+      <c r="CY10" s="0" t="inlineStr"/>
+      <c r="CZ10" s="0" t="inlineStr"/>
+      <c r="DA10" s="0" t="inlineStr"/>
+      <c r="DB10" s="0" t="inlineStr"/>
+      <c r="DC10" s="0" t="inlineStr"/>
+      <c r="DD10" s="0" t="inlineStr"/>
+      <c r="DE10" s="0" t="inlineStr"/>
+      <c r="DF10" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG10" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH10" s="0" t="inlineStr">
+        <is>
+          <t>0000143014</t>
+        </is>
+      </c>
+      <c r="DJ10" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="12" customHeight="1" s="2">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>16662</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr"/>
+      <c r="E11" s="0" t="inlineStr"/>
+      <c r="F11" s="0" t="inlineStr"/>
+      <c r="G11" s="0" t="inlineStr"/>
+      <c r="H11" s="0" t="inlineStr"/>
+      <c r="I11" s="0" t="inlineStr"/>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>乳房</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr">
+        <is>
+          <t>bil</t>
+        </is>
+      </c>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>C50.9</t>
+        </is>
+      </c>
+      <c r="N11" s="0" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O11" s="0" t="inlineStr">
+        <is>
+          <t>M8140/3</t>
+        </is>
+      </c>
+      <c r="P11" s="0" t="inlineStr"/>
+      <c r="Q11" s="0" t="inlineStr"/>
+      <c r="R11" s="0" t="inlineStr"/>
+      <c r="S11" s="0" t="inlineStr"/>
+      <c r="T11" s="0" t="inlineStr"/>
+      <c r="U11" s="0" t="inlineStr"/>
+      <c r="V11" s="0" t="inlineStr"/>
+      <c r="W11" s="0" t="inlineStr"/>
+      <c r="X11" s="0" t="inlineStr"/>
+      <c r="Y11" s="0" t="inlineStr"/>
+      <c r="Z11" s="0" t="inlineStr"/>
+      <c r="AA11" s="0" t="inlineStr"/>
+      <c r="AB11" s="0" t="inlineStr"/>
+      <c r="AC11" s="0" t="inlineStr"/>
+      <c r="AD11" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="AE11" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AF11" s="0" t="inlineStr">
+        <is>
+          <t>T4b</t>
+        </is>
+      </c>
+      <c r="AG11" s="0" t="inlineStr">
+        <is>
+          <t>N1</t>
+        </is>
+      </c>
+      <c r="AH11" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="AI11" s="0" t="inlineStr">
+        <is>
+          <t>SIVB</t>
+        </is>
+      </c>
+      <c r="AJ11" s="0" t="inlineStr"/>
+      <c r="AK11" s="0" t="inlineStr">
+        <is>
+          <t>頭頸部腫瘍</t>
+        </is>
+      </c>
+      <c r="AL11" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM11" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN11" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO11" s="0" t="inlineStr"/>
+      <c r="AP11" s="0" t="inlineStr">
+        <is>
+          <t>入院</t>
+        </is>
+      </c>
+      <c r="AQ11" s="0" t="inlineStr">
+        <is>
+          <t>2024/07/23</t>
+        </is>
+      </c>
+      <c r="AR11" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/11</t>
+        </is>
+      </c>
+      <c r="AS11" s="0" t="inlineStr">
+        <is>
+          <t>66.00</t>
+        </is>
+      </c>
+      <c r="AT11" s="0" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="AU11" s="0" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AV11" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW11" s="0" t="inlineStr"/>
+      <c r="AX11" s="0" t="inlineStr"/>
+      <c r="AY11" s="0" t="inlineStr">
+        <is>
+          <t>喉頭; NOS</t>
+        </is>
+      </c>
+      <c r="AZ11" s="0" t="inlineStr">
+        <is>
+          <t>C32.9</t>
+        </is>
+      </c>
+      <c r="BA11" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB11" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC11" s="0" t="inlineStr"/>
+      <c r="BD11" s="0" t="inlineStr"/>
+      <c r="BE11" s="0" t="inlineStr"/>
+      <c r="BF11" s="0" t="inlineStr"/>
+      <c r="BG11" s="0" t="inlineStr">
+        <is>
+          <t>IMRT：頭頚部</t>
+        </is>
+      </c>
+      <c r="BH11" s="0" t="inlineStr">
+        <is>
+          <t>画像誘導放射線治療加算</t>
+        </is>
+      </c>
+      <c r="BI11" s="0" t="inlineStr">
+        <is>
+          <t>IMRT</t>
+        </is>
+      </c>
+      <c r="BJ11" s="0" t="inlineStr">
+        <is>
+          <t>IMRT</t>
+        </is>
+      </c>
+      <c r="BK11" s="0" t="inlineStr"/>
+      <c r="BL11" s="0" t="inlineStr"/>
+      <c r="BM11" s="0" t="inlineStr"/>
+      <c r="BN11" s="0" t="inlineStr"/>
+      <c r="BO11" s="0" t="inlineStr"/>
+      <c r="BP11" s="0" t="inlineStr"/>
+      <c r="BQ11" s="0" t="inlineStr"/>
+      <c r="BR11" s="0" t="inlineStr"/>
+      <c r="BS11" s="0" t="inlineStr"/>
+      <c r="BT11" s="0" t="inlineStr"/>
+      <c r="BU11" s="0" t="inlineStr"/>
+      <c r="BV11" s="0" t="inlineStr"/>
+      <c r="BW11" s="0" t="inlineStr"/>
+      <c r="BX11" s="0" t="inlineStr"/>
+      <c r="BY11" s="0" t="inlineStr"/>
+      <c r="BZ11" s="0" t="inlineStr"/>
+      <c r="CA11" s="0" t="inlineStr"/>
+      <c r="CB11" s="0" t="inlineStr"/>
+      <c r="CC11" s="0" t="inlineStr"/>
+      <c r="CD11" s="0" t="inlineStr"/>
+      <c r="CE11" s="0" t="inlineStr"/>
+      <c r="CF11" s="0" t="inlineStr"/>
+      <c r="CG11" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH11" s="0" t="inlineStr"/>
+      <c r="CI11" s="0" t="inlineStr">
+        <is>
+          <t>非担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ11" s="0" t="inlineStr">
+        <is>
+          <t>2025/01/14</t>
+        </is>
+      </c>
+      <c r="CK11" s="0" t="inlineStr"/>
+      <c r="CL11" s="0" t="inlineStr"/>
+      <c r="CM11" s="0" t="inlineStr"/>
+      <c r="CN11" s="0" t="inlineStr"/>
+      <c r="CO11" s="0" t="inlineStr"/>
+      <c r="CP11" s="0" t="inlineStr"/>
+      <c r="CQ11" s="0" t="inlineStr"/>
+      <c r="CR11" s="0" t="inlineStr"/>
+      <c r="CS11" s="0" t="inlineStr"/>
+      <c r="CT11" s="0" t="inlineStr"/>
+      <c r="CU11" s="0" t="inlineStr"/>
+      <c r="CV11" s="0" t="inlineStr"/>
+      <c r="CW11" s="0" t="inlineStr"/>
+      <c r="CX11" s="0" t="inlineStr"/>
+      <c r="CY11" s="0" t="inlineStr"/>
+      <c r="CZ11" s="0" t="inlineStr"/>
+      <c r="DA11" s="0" t="inlineStr"/>
+      <c r="DB11" s="0" t="inlineStr"/>
+      <c r="DC11" s="0" t="inlineStr"/>
+      <c r="DD11" s="0" t="inlineStr"/>
+      <c r="DE11" s="0" t="inlineStr"/>
+      <c r="DF11" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG11" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH11" s="0" t="inlineStr">
+        <is>
+          <t>0000153834</t>
+        </is>
+      </c>
+      <c r="DJ11" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="12" customHeight="1" s="2">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>16467</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr"/>
+      <c r="E12" s="0" t="inlineStr"/>
+      <c r="F12" s="0" t="inlineStr"/>
+      <c r="G12" s="0" t="inlineStr"/>
+      <c r="H12" s="0" t="inlineStr"/>
+      <c r="I12" s="0" t="inlineStr"/>
+      <c r="J12" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="K12" s="0" t="inlineStr">
+        <is>
+          <t>乳房</t>
+        </is>
+      </c>
+      <c r="L12" s="0" t="inlineStr">
+        <is>
+          <t>bil</t>
+        </is>
+      </c>
+      <c r="M12" s="0" t="inlineStr">
+        <is>
+          <t>C50.9</t>
+        </is>
+      </c>
+      <c r="N12" s="0" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O12" s="0" t="inlineStr">
+        <is>
+          <t>M8140/3</t>
+        </is>
+      </c>
+      <c r="P12" s="0" t="inlineStr"/>
+      <c r="Q12" s="0" t="inlineStr"/>
+      <c r="R12" s="0" t="inlineStr"/>
+      <c r="S12" s="0" t="inlineStr"/>
+      <c r="T12" s="0" t="inlineStr"/>
+      <c r="U12" s="0" t="inlineStr"/>
+      <c r="V12" s="0" t="inlineStr"/>
+      <c r="W12" s="0" t="inlineStr"/>
+      <c r="X12" s="0" t="inlineStr"/>
+      <c r="Y12" s="0" t="inlineStr"/>
+      <c r="Z12" s="0" t="inlineStr"/>
+      <c r="AA12" s="0" t="inlineStr"/>
+      <c r="AB12" s="0" t="inlineStr"/>
+      <c r="AC12" s="0" t="inlineStr"/>
+      <c r="AD12" s="0" t="inlineStr"/>
+      <c r="AE12" s="0" t="inlineStr"/>
+      <c r="AF12" s="0" t="inlineStr"/>
+      <c r="AG12" s="0" t="inlineStr"/>
+      <c r="AH12" s="0" t="inlineStr"/>
+      <c r="AI12" s="0" t="inlineStr"/>
+      <c r="AJ12" s="0" t="inlineStr"/>
+      <c r="AK12" s="0" t="inlineStr">
+        <is>
+          <t>食道癌</t>
+        </is>
+      </c>
+      <c r="AL12" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM12" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN12" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO12" s="0" t="inlineStr"/>
+      <c r="AP12" s="0" t="inlineStr">
+        <is>
+          <t>入院</t>
+        </is>
+      </c>
+      <c r="AQ12" s="0" t="inlineStr">
+        <is>
+          <t>2024/02/06</t>
+        </is>
+      </c>
+      <c r="AR12" s="0" t="inlineStr">
+        <is>
+          <t>2024/03/21</t>
+        </is>
+      </c>
+      <c r="AS12" s="0" t="inlineStr">
+        <is>
+          <t>70.00</t>
+        </is>
+      </c>
+      <c r="AT12" s="0" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="AU12" s="0" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="AV12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW12" s="0" t="inlineStr"/>
+      <c r="AX12" s="0" t="inlineStr"/>
+      <c r="AY12" s="0" t="inlineStr">
+        <is>
+          <t>下部食道の悪性新生物</t>
+        </is>
+      </c>
+      <c r="AZ12" s="0" t="inlineStr">
+        <is>
+          <t>C15.5</t>
+        </is>
+      </c>
+      <c r="BA12" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB12" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC12" s="0" t="inlineStr"/>
+      <c r="BD12" s="0" t="inlineStr"/>
+      <c r="BE12" s="0" t="inlineStr"/>
+      <c r="BF12" s="0" t="inlineStr"/>
+      <c r="BG12" s="0" t="inlineStr">
+        <is>
+          <t>IMRT：その他</t>
+        </is>
+      </c>
+      <c r="BH12" s="0" t="inlineStr">
+        <is>
+          <t>画像誘導放射線治療加算</t>
+        </is>
+      </c>
+      <c r="BI12" s="0" t="inlineStr">
+        <is>
+          <t>IMRT</t>
+        </is>
+      </c>
+      <c r="BJ12" s="0" t="inlineStr">
+        <is>
+          <t>IMRT</t>
+        </is>
+      </c>
+      <c r="BK12" s="0" t="inlineStr"/>
+      <c r="BL12" s="0" t="inlineStr"/>
+      <c r="BM12" s="0" t="inlineStr"/>
+      <c r="BN12" s="0" t="inlineStr"/>
+      <c r="BO12" s="0" t="inlineStr"/>
+      <c r="BP12" s="0" t="inlineStr"/>
+      <c r="BQ12" s="0" t="inlineStr"/>
+      <c r="BR12" s="0" t="inlineStr"/>
+      <c r="BS12" s="0" t="inlineStr"/>
+      <c r="BT12" s="0" t="inlineStr"/>
+      <c r="BU12" s="0" t="inlineStr"/>
+      <c r="BV12" s="0" t="inlineStr"/>
+      <c r="BW12" s="0" t="inlineStr"/>
+      <c r="BX12" s="0" t="inlineStr"/>
+      <c r="BY12" s="0" t="inlineStr"/>
+      <c r="BZ12" s="0" t="inlineStr"/>
+      <c r="CA12" s="0" t="inlineStr"/>
+      <c r="CB12" s="0" t="inlineStr"/>
+      <c r="CC12" s="0" t="inlineStr"/>
+      <c r="CD12" s="0" t="inlineStr"/>
+      <c r="CE12" s="0" t="inlineStr"/>
+      <c r="CF12" s="0" t="inlineStr"/>
+      <c r="CG12" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH12" s="0" t="inlineStr"/>
+      <c r="CI12" s="0" t="inlineStr"/>
+      <c r="CJ12" s="0" t="inlineStr">
+        <is>
+          <t>2024/03/21</t>
+        </is>
+      </c>
+      <c r="CK12" s="0" t="inlineStr"/>
+      <c r="CL12" s="0" t="inlineStr"/>
+      <c r="CM12" s="0" t="inlineStr"/>
+      <c r="CN12" s="0" t="inlineStr"/>
+      <c r="CO12" s="0" t="inlineStr"/>
+      <c r="CP12" s="0" t="inlineStr"/>
+      <c r="CQ12" s="0" t="inlineStr"/>
+      <c r="CR12" s="0" t="inlineStr"/>
+      <c r="CS12" s="0" t="inlineStr"/>
+      <c r="CT12" s="0" t="inlineStr"/>
+      <c r="CU12" s="0" t="inlineStr"/>
+      <c r="CV12" s="0" t="inlineStr"/>
+      <c r="CW12" s="0" t="inlineStr"/>
+      <c r="CX12" s="0" t="inlineStr"/>
+      <c r="CY12" s="0" t="inlineStr"/>
+      <c r="CZ12" s="0" t="inlineStr"/>
+      <c r="DA12" s="0" t="inlineStr"/>
+      <c r="DB12" s="0" t="inlineStr"/>
+      <c r="DC12" s="0" t="inlineStr"/>
+      <c r="DD12" s="0" t="inlineStr"/>
+      <c r="DE12" s="0" t="inlineStr"/>
+      <c r="DF12" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG12" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH12" s="0" t="inlineStr">
+        <is>
+          <t>0000162256</t>
+        </is>
+      </c>
+      <c r="DJ12" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="12" customHeight="1" s="2">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>16499</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr"/>
+      <c r="E13" s="0" t="inlineStr"/>
+      <c r="F13" s="0" t="inlineStr"/>
+      <c r="G13" s="0" t="inlineStr"/>
+      <c r="H13" s="0" t="inlineStr"/>
+      <c r="I13" s="0" t="inlineStr"/>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>乳房</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>C50.9</t>
+        </is>
+      </c>
+      <c r="N13" s="0" t="inlineStr">
+        <is>
+          <t>Infiltrating duct carcinoma</t>
+        </is>
+      </c>
+      <c r="O13" s="0" t="inlineStr">
+        <is>
+          <t>M8500/3</t>
+        </is>
+      </c>
+      <c r="P13" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="Q13" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="R13" s="0" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="S13" s="0" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="T13" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="U13" s="0" t="inlineStr">
+        <is>
+          <t>SIA</t>
+        </is>
+      </c>
+      <c r="V13" s="0" t="inlineStr"/>
+      <c r="W13" s="0" t="inlineStr"/>
+      <c r="X13" s="0" t="inlineStr"/>
+      <c r="Y13" s="0" t="inlineStr"/>
+      <c r="Z13" s="0" t="inlineStr"/>
+      <c r="AA13" s="0" t="inlineStr"/>
+      <c r="AB13" s="0" t="inlineStr"/>
+      <c r="AC13" s="0" t="inlineStr"/>
+      <c r="AD13" s="0" t="inlineStr"/>
+      <c r="AE13" s="0" t="inlineStr"/>
+      <c r="AF13" s="0" t="inlineStr"/>
+      <c r="AG13" s="0" t="inlineStr"/>
+      <c r="AH13" s="0" t="inlineStr"/>
+      <c r="AI13" s="0" t="inlineStr"/>
+      <c r="AJ13" s="0" t="inlineStr"/>
+      <c r="AK13" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="AL13" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM13" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN13" s="0" t="inlineStr">
+        <is>
+          <t>術後</t>
+        </is>
+      </c>
+      <c r="AO13" s="0" t="inlineStr"/>
+      <c r="AP13" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ13" s="0" t="inlineStr">
+        <is>
+          <t>2024/01/24</t>
+        </is>
+      </c>
+      <c r="AR13" s="0" t="inlineStr">
+        <is>
+          <t>2024/02/15</t>
+        </is>
+      </c>
+      <c r="AS13" s="0" t="inlineStr">
+        <is>
+          <t>42.56</t>
+        </is>
+      </c>
+      <c r="AT13" s="0" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="AU13" s="0" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="AV13" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW13" s="0" t="inlineStr"/>
+      <c r="AX13" s="0" t="inlineStr"/>
+      <c r="AY13" s="0" t="inlineStr">
+        <is>
+          <t>乳房下外側４分の１の悪性新生物</t>
+        </is>
+      </c>
+      <c r="AZ13" s="0" t="inlineStr">
+        <is>
+          <t>C50.5</t>
+        </is>
+      </c>
+      <c r="BA13" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB13" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC13" s="0" t="inlineStr"/>
+      <c r="BD13" s="0" t="inlineStr"/>
+      <c r="BE13" s="0" t="inlineStr"/>
+      <c r="BF13" s="0" t="inlineStr"/>
+      <c r="BG13" s="0" t="inlineStr"/>
+      <c r="BH13" s="0" t="inlineStr"/>
+      <c r="BI13" s="0" t="inlineStr">
+        <is>
+          <t>複雑</t>
+        </is>
+      </c>
+      <c r="BJ13" s="0" t="inlineStr"/>
+      <c r="BK13" s="0" t="inlineStr"/>
+      <c r="BL13" s="0" t="inlineStr"/>
+      <c r="BM13" s="0" t="inlineStr"/>
+      <c r="BN13" s="0" t="inlineStr"/>
+      <c r="BO13" s="0" t="inlineStr"/>
+      <c r="BP13" s="0" t="inlineStr"/>
+      <c r="BQ13" s="0" t="inlineStr"/>
+      <c r="BR13" s="0" t="inlineStr"/>
+      <c r="BS13" s="0" t="inlineStr"/>
+      <c r="BT13" s="0" t="inlineStr"/>
+      <c r="BU13" s="0" t="inlineStr"/>
+      <c r="BV13" s="0" t="inlineStr"/>
+      <c r="BW13" s="0" t="inlineStr"/>
+      <c r="BX13" s="0" t="inlineStr"/>
+      <c r="BY13" s="0" t="inlineStr"/>
+      <c r="BZ13" s="0" t="inlineStr"/>
+      <c r="CA13" s="0" t="inlineStr"/>
+      <c r="CB13" s="0" t="inlineStr"/>
+      <c r="CC13" s="0" t="inlineStr"/>
+      <c r="CD13" s="0" t="inlineStr"/>
+      <c r="CE13" s="0" t="inlineStr"/>
+      <c r="CF13" s="0" t="inlineStr"/>
+      <c r="CG13" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH13" s="0" t="inlineStr"/>
+      <c r="CI13" s="0" t="inlineStr">
+        <is>
+          <t>非担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ13" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/09</t>
+        </is>
+      </c>
+      <c r="CK13" s="0" t="inlineStr"/>
+      <c r="CL13" s="0" t="inlineStr"/>
+      <c r="CM13" s="0" t="inlineStr"/>
+      <c r="CN13" s="0" t="inlineStr"/>
+      <c r="CO13" s="0" t="inlineStr"/>
+      <c r="CP13" s="0" t="inlineStr"/>
+      <c r="CQ13" s="0" t="inlineStr"/>
+      <c r="CR13" s="0" t="inlineStr"/>
+      <c r="CS13" s="0" t="inlineStr"/>
+      <c r="CT13" s="0" t="inlineStr"/>
+      <c r="CU13" s="0" t="inlineStr"/>
+      <c r="CV13" s="0" t="inlineStr"/>
+      <c r="CW13" s="0" t="inlineStr"/>
+      <c r="CX13" s="0" t="inlineStr"/>
+      <c r="CY13" s="0" t="inlineStr"/>
+      <c r="CZ13" s="0" t="inlineStr"/>
+      <c r="DA13" s="0" t="inlineStr"/>
+      <c r="DB13" s="0" t="inlineStr"/>
+      <c r="DC13" s="0" t="inlineStr"/>
+      <c r="DD13" s="0" t="inlineStr"/>
+      <c r="DE13" s="0" t="inlineStr"/>
+      <c r="DF13" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG13" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH13" s="0" t="inlineStr">
+        <is>
+          <t>0000162604</t>
+        </is>
+      </c>
+      <c r="DJ13" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="12" customHeight="1" s="2">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>16627</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr"/>
+      <c r="E14" s="0" t="inlineStr"/>
+      <c r="F14" s="0" t="inlineStr"/>
+      <c r="G14" s="0" t="inlineStr"/>
+      <c r="H14" s="0" t="inlineStr"/>
+      <c r="I14" s="0" t="inlineStr"/>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>乳癌</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>乳房</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>C50.9</t>
+        </is>
+      </c>
+      <c r="N14" s="0" t="inlineStr">
+        <is>
+          <t>Infiltrating duct carcinoma</t>
+        </is>
+      </c>
+      <c r="O14" s="0" t="inlineStr">
+        <is>
+          <t>M8500/3</t>
+        </is>
+      </c>
+      <c r="P14" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="Q14" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="R14" s="0" t="inlineStr">
+        <is>
+          <t>T1a</t>
+        </is>
+      </c>
+      <c r="S14" s="0" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="T14" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="U14" s="0" t="inlineStr">
+        <is>
+          <t>SIA</t>
+        </is>
+      </c>
+      <c r="V14" s="0" t="inlineStr"/>
+      <c r="W14" s="0" t="inlineStr"/>
+      <c r="X14" s="0" t="inlineStr"/>
+      <c r="Y14" s="0" t="inlineStr"/>
+      <c r="Z14" s="0" t="inlineStr"/>
+      <c r="AA14" s="0" t="inlineStr"/>
+      <c r="AB14" s="0" t="inlineStr"/>
+      <c r="AC14" s="0" t="inlineStr"/>
+      <c r="AD14" s="0" t="inlineStr"/>
+      <c r="AE14" s="0" t="inlineStr"/>
+      <c r="AF14" s="0" t="inlineStr"/>
+      <c r="AG14" s="0" t="inlineStr"/>
+      <c r="AH14" s="0" t="inlineStr"/>
+      <c r="AI14" s="0" t="inlineStr"/>
+      <c r="AJ14" s="0" t="inlineStr"/>
+      <c r="AK14" s="0" t="inlineStr">
+        <is>
+          <t>肝・胆・膵癌</t>
+        </is>
+      </c>
+      <c r="AL14" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM14" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN14" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO14" s="0" t="inlineStr"/>
+      <c r="AP14" s="0" t="inlineStr">
+        <is>
+          <t>入院</t>
+        </is>
+      </c>
+      <c r="AQ14" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/28</t>
+        </is>
+      </c>
+      <c r="AR14" s="0" t="inlineStr">
+        <is>
+          <t>2024/07/03</t>
+        </is>
+      </c>
+      <c r="AS14" s="0" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="AT14" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="AU14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV14" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW14" s="0" t="inlineStr"/>
+      <c r="AX14" s="0" t="inlineStr"/>
+      <c r="AY14" s="0" t="inlineStr">
+        <is>
+          <t>肝</t>
+        </is>
+      </c>
+      <c r="AZ14" s="0" t="inlineStr">
+        <is>
+          <t>C22.0</t>
+        </is>
+      </c>
+      <c r="BA14" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB14" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC14" s="0" t="inlineStr"/>
+      <c r="BD14" s="0" t="inlineStr"/>
+      <c r="BE14" s="0" t="inlineStr"/>
+      <c r="BF14" s="0" t="inlineStr"/>
+      <c r="BG14" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH14" s="0" t="inlineStr"/>
+      <c r="BI14" s="0" t="inlineStr"/>
+      <c r="BJ14" s="0" t="inlineStr"/>
+      <c r="BK14" s="0" t="inlineStr"/>
+      <c r="BL14" s="0" t="inlineStr"/>
+      <c r="BM14" s="0" t="inlineStr"/>
+      <c r="BN14" s="0" t="inlineStr"/>
+      <c r="BO14" s="0" t="inlineStr"/>
+      <c r="BP14" s="0" t="inlineStr"/>
+      <c r="BQ14" s="0" t="inlineStr"/>
+      <c r="BR14" s="0" t="inlineStr"/>
+      <c r="BS14" s="0" t="inlineStr"/>
+      <c r="BT14" s="0" t="inlineStr"/>
+      <c r="BU14" s="0" t="inlineStr"/>
+      <c r="BV14" s="0" t="inlineStr"/>
+      <c r="BW14" s="0" t="inlineStr"/>
+      <c r="BX14" s="0" t="inlineStr"/>
+      <c r="BY14" s="0" t="inlineStr"/>
+      <c r="BZ14" s="0" t="inlineStr"/>
+      <c r="CA14" s="0" t="inlineStr"/>
+      <c r="CB14" s="0" t="inlineStr"/>
+      <c r="CC14" s="0" t="inlineStr"/>
+      <c r="CD14" s="0" t="inlineStr"/>
+      <c r="CE14" s="0" t="inlineStr"/>
+      <c r="CF14" s="0" t="inlineStr"/>
+      <c r="CG14" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH14" s="0" t="inlineStr"/>
+      <c r="CI14" s="0" t="inlineStr"/>
+      <c r="CJ14" s="0" t="inlineStr">
+        <is>
+          <t>2024/07/03</t>
+        </is>
+      </c>
+      <c r="CK14" s="0" t="inlineStr"/>
+      <c r="CL14" s="0" t="inlineStr"/>
+      <c r="CM14" s="0" t="inlineStr"/>
+      <c r="CN14" s="0" t="inlineStr"/>
+      <c r="CO14" s="0" t="inlineStr"/>
+      <c r="CP14" s="0" t="inlineStr"/>
+      <c r="CQ14" s="0" t="inlineStr"/>
+      <c r="CR14" s="0" t="inlineStr"/>
+      <c r="CS14" s="0" t="inlineStr"/>
+      <c r="CT14" s="0" t="inlineStr"/>
+      <c r="CU14" s="0" t="inlineStr"/>
+      <c r="CV14" s="0" t="inlineStr"/>
+      <c r="CW14" s="0" t="inlineStr"/>
+      <c r="CX14" s="0" t="inlineStr"/>
+      <c r="CY14" s="0" t="inlineStr"/>
+      <c r="CZ14" s="0" t="inlineStr"/>
+      <c r="DA14" s="0" t="inlineStr"/>
+      <c r="DB14" s="0" t="inlineStr"/>
+      <c r="DC14" s="0" t="inlineStr"/>
+      <c r="DD14" s="0" t="inlineStr"/>
+      <c r="DE14" s="0" t="inlineStr"/>
+      <c r="DF14" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG14" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH14" s="0" t="inlineStr">
+        <is>
+          <t>0000172510</t>
+        </is>
+      </c>
+      <c r="DJ14" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="12" customHeight="1" s="2">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>16627</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr"/>
+      <c r="E15" s="0" t="inlineStr"/>
+      <c r="F15" s="0" t="inlineStr"/>
+      <c r="G15" s="0" t="inlineStr"/>
+      <c r="H15" s="0" t="inlineStr"/>
+      <c r="I15" s="0" t="inlineStr"/>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>前立腺癌</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>前立腺</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr"/>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>C61.9</t>
+        </is>
+      </c>
+      <c r="N15" s="0" t="inlineStr">
+        <is>
+          <t>Adenocarcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O15" s="0" t="inlineStr">
+        <is>
+          <t>M8140/3</t>
+        </is>
+      </c>
+      <c r="P15" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="Q15" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="R15" s="0" t="inlineStr">
+        <is>
+          <t>T1a</t>
+        </is>
+      </c>
+      <c r="S15" s="0" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="T15" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="U15" s="0" t="inlineStr">
+        <is>
+          <t>SIA</t>
+        </is>
+      </c>
+      <c r="V15" s="0" t="inlineStr"/>
+      <c r="W15" s="0" t="inlineStr"/>
+      <c r="X15" s="0" t="inlineStr"/>
+      <c r="Y15" s="0" t="inlineStr"/>
+      <c r="Z15" s="0" t="inlineStr"/>
+      <c r="AA15" s="0" t="inlineStr"/>
+      <c r="AB15" s="0" t="inlineStr"/>
+      <c r="AC15" s="0" t="inlineStr"/>
+      <c r="AD15" s="0" t="inlineStr"/>
+      <c r="AE15" s="0" t="inlineStr"/>
+      <c r="AF15" s="0" t="inlineStr"/>
+      <c r="AG15" s="0" t="inlineStr"/>
+      <c r="AH15" s="0" t="inlineStr"/>
+      <c r="AI15" s="0" t="inlineStr"/>
+      <c r="AJ15" s="0" t="inlineStr"/>
+      <c r="AK15" s="0" t="inlineStr">
+        <is>
+          <t>肝・胆・膵癌</t>
+        </is>
+      </c>
+      <c r="AL15" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM15" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN15" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO15" s="0" t="inlineStr"/>
+      <c r="AP15" s="0" t="inlineStr">
+        <is>
+          <t>入院</t>
+        </is>
+      </c>
+      <c r="AQ15" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/25</t>
+        </is>
+      </c>
+      <c r="AR15" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/27</t>
+        </is>
+      </c>
+      <c r="AS15" s="0" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="AT15" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU15" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW15" s="0" t="inlineStr"/>
+      <c r="AX15" s="0" t="inlineStr"/>
+      <c r="AY15" s="0" t="inlineStr">
+        <is>
+          <t>肝</t>
+        </is>
+      </c>
+      <c r="AZ15" s="0" t="inlineStr">
+        <is>
+          <t>C22.0</t>
+        </is>
+      </c>
+      <c r="BA15" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB15" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC15" s="0" t="inlineStr"/>
+      <c r="BD15" s="0" t="inlineStr"/>
+      <c r="BE15" s="0" t="inlineStr"/>
+      <c r="BF15" s="0" t="inlineStr"/>
+      <c r="BG15" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH15" s="0" t="inlineStr"/>
+      <c r="BI15" s="0" t="inlineStr"/>
+      <c r="BJ15" s="0" t="inlineStr"/>
+      <c r="BK15" s="0" t="inlineStr"/>
+      <c r="BL15" s="0" t="inlineStr"/>
+      <c r="BM15" s="0" t="inlineStr"/>
+      <c r="BN15" s="0" t="inlineStr"/>
+      <c r="BO15" s="0" t="inlineStr"/>
+      <c r="BP15" s="0" t="inlineStr"/>
+      <c r="BQ15" s="0" t="inlineStr"/>
+      <c r="BR15" s="0" t="inlineStr"/>
+      <c r="BS15" s="0" t="inlineStr"/>
+      <c r="BT15" s="0" t="inlineStr"/>
+      <c r="BU15" s="0" t="inlineStr"/>
+      <c r="BV15" s="0" t="inlineStr"/>
+      <c r="BW15" s="0" t="inlineStr"/>
+      <c r="BX15" s="0" t="inlineStr"/>
+      <c r="BY15" s="0" t="inlineStr"/>
+      <c r="BZ15" s="0" t="inlineStr"/>
+      <c r="CA15" s="0" t="inlineStr"/>
+      <c r="CB15" s="0" t="inlineStr"/>
+      <c r="CC15" s="0" t="inlineStr"/>
+      <c r="CD15" s="0" t="inlineStr"/>
+      <c r="CE15" s="0" t="inlineStr"/>
+      <c r="CF15" s="0" t="inlineStr"/>
+      <c r="CG15" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH15" s="0" t="inlineStr"/>
+      <c r="CI15" s="0" t="inlineStr"/>
+      <c r="CJ15" s="0" t="inlineStr">
+        <is>
+          <t>2024/07/03</t>
+        </is>
+      </c>
+      <c r="CK15" s="0" t="inlineStr"/>
+      <c r="CL15" s="0" t="inlineStr"/>
+      <c r="CM15" s="0" t="inlineStr"/>
+      <c r="CN15" s="0" t="inlineStr"/>
+      <c r="CO15" s="0" t="inlineStr"/>
+      <c r="CP15" s="0" t="inlineStr"/>
+      <c r="CQ15" s="0" t="inlineStr"/>
+      <c r="CR15" s="0" t="inlineStr"/>
+      <c r="CS15" s="0" t="inlineStr"/>
+      <c r="CT15" s="0" t="inlineStr"/>
+      <c r="CU15" s="0" t="inlineStr"/>
+      <c r="CV15" s="0" t="inlineStr"/>
+      <c r="CW15" s="0" t="inlineStr"/>
+      <c r="CX15" s="0" t="inlineStr"/>
+      <c r="CY15" s="0" t="inlineStr"/>
+      <c r="CZ15" s="0" t="inlineStr"/>
+      <c r="DA15" s="0" t="inlineStr"/>
+      <c r="DB15" s="0" t="inlineStr"/>
+      <c r="DC15" s="0" t="inlineStr"/>
+      <c r="DD15" s="0" t="inlineStr"/>
+      <c r="DE15" s="0" t="inlineStr"/>
+      <c r="DF15" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG15" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH15" s="0" t="inlineStr">
+        <is>
+          <t>0000172510</t>
+        </is>
+      </c>
+      <c r="DJ15" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="12" customHeight="1" s="2">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>16810</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr"/>
+      <c r="E16" s="0" t="inlineStr"/>
+      <c r="F16" s="0" t="inlineStr"/>
+      <c r="G16" s="0" t="inlineStr"/>
+      <c r="H16" s="0" t="inlineStr"/>
+      <c r="I16" s="0" t="inlineStr"/>
+      <c r="J16" s="0" t="inlineStr">
+        <is>
+          <t>中咽頭後壁の悪性新生物</t>
+        </is>
+      </c>
+      <c r="K16" s="0" t="inlineStr">
+        <is>
+          <t>中咽頭後壁の悪性新生物</t>
+        </is>
+      </c>
+      <c r="L16" s="0" t="inlineStr"/>
+      <c r="M16" s="0" t="inlineStr">
+        <is>
+          <t>C10.3</t>
+        </is>
+      </c>
+      <c r="N16" s="0" t="inlineStr">
+        <is>
+          <t>Squamous cell carcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O16" s="0" t="inlineStr">
+        <is>
+          <t>M8070/3</t>
+        </is>
+      </c>
+      <c r="P16" s="0" t="inlineStr"/>
+      <c r="Q16" s="0" t="inlineStr"/>
+      <c r="R16" s="0" t="inlineStr"/>
+      <c r="S16" s="0" t="inlineStr"/>
+      <c r="T16" s="0" t="inlineStr"/>
+      <c r="U16" s="0" t="inlineStr"/>
+      <c r="V16" s="0" t="inlineStr"/>
+      <c r="W16" s="0" t="inlineStr"/>
+      <c r="X16" s="0" t="inlineStr"/>
+      <c r="Y16" s="0" t="inlineStr"/>
+      <c r="Z16" s="0" t="inlineStr"/>
+      <c r="AA16" s="0" t="inlineStr"/>
+      <c r="AB16" s="0" t="inlineStr"/>
+      <c r="AC16" s="0" t="inlineStr"/>
+      <c r="AD16" s="0" t="inlineStr"/>
+      <c r="AE16" s="0" t="inlineStr"/>
+      <c r="AF16" s="0" t="inlineStr"/>
+      <c r="AG16" s="0" t="inlineStr"/>
+      <c r="AH16" s="0" t="inlineStr"/>
+      <c r="AI16" s="0" t="inlineStr"/>
+      <c r="AJ16" s="0" t="inlineStr"/>
+      <c r="AK16" s="0" t="inlineStr">
+        <is>
+          <t>泌尿器系腫瘍</t>
+        </is>
+      </c>
+      <c r="AL16" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM16" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN16" s="0" t="inlineStr">
+        <is>
+          <t>緩和</t>
+        </is>
+      </c>
+      <c r="AO16" s="0" t="inlineStr"/>
+      <c r="AP16" s="0" t="inlineStr">
+        <is>
+          <t>入院</t>
+        </is>
+      </c>
+      <c r="AQ16" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/27</t>
+        </is>
+      </c>
+      <c r="AR16" s="0" t="inlineStr">
+        <is>
+          <t>2025/01/08</t>
+        </is>
+      </c>
+      <c r="AS16" s="0" t="inlineStr">
+        <is>
+          <t>34.00</t>
+        </is>
+      </c>
+      <c r="AT16" s="0" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="AU16" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AV16" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW16" s="0" t="inlineStr"/>
+      <c r="AX16" s="0" t="inlineStr"/>
+      <c r="AY16" s="0" t="inlineStr"/>
+      <c r="AZ16" s="0" t="inlineStr"/>
+      <c r="BA16" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB16" s="0" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC16" s="0" t="inlineStr"/>
+      <c r="BD16" s="0" t="inlineStr"/>
+      <c r="BE16" s="0" t="inlineStr"/>
+      <c r="BF16" s="0" t="inlineStr"/>
+      <c r="BG16" s="0" t="inlineStr">
+        <is>
+          <t>IMRT：その他</t>
+        </is>
+      </c>
+      <c r="BH16" s="0" t="inlineStr">
+        <is>
+          <t>画像誘導放射線治療加算</t>
+        </is>
+      </c>
+      <c r="BI16" s="0" t="inlineStr">
+        <is>
+          <t>複雑</t>
+        </is>
+      </c>
+      <c r="BJ16" s="0" t="inlineStr"/>
+      <c r="BK16" s="0" t="inlineStr"/>
+      <c r="BL16" s="0" t="inlineStr"/>
+      <c r="BM16" s="0" t="inlineStr"/>
+      <c r="BN16" s="0" t="inlineStr"/>
+      <c r="BO16" s="0" t="inlineStr"/>
+      <c r="BP16" s="0" t="inlineStr"/>
+      <c r="BQ16" s="0" t="inlineStr"/>
+      <c r="BR16" s="0" t="inlineStr"/>
+      <c r="BS16" s="0" t="inlineStr"/>
+      <c r="BT16" s="0" t="inlineStr"/>
+      <c r="BU16" s="0" t="inlineStr"/>
+      <c r="BV16" s="0" t="inlineStr"/>
+      <c r="BW16" s="0" t="inlineStr"/>
+      <c r="BX16" s="0" t="inlineStr"/>
+      <c r="BY16" s="0" t="inlineStr"/>
+      <c r="BZ16" s="0" t="inlineStr"/>
+      <c r="CA16" s="0" t="inlineStr"/>
+      <c r="CB16" s="0" t="inlineStr"/>
+      <c r="CC16" s="0" t="inlineStr"/>
+      <c r="CD16" s="0" t="inlineStr"/>
+      <c r="CE16" s="0" t="inlineStr"/>
+      <c r="CF16" s="0" t="inlineStr"/>
+      <c r="CG16" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH16" s="0" t="inlineStr"/>
+      <c r="CI16" s="0" t="inlineStr"/>
+      <c r="CJ16" s="0" t="inlineStr">
+        <is>
+          <t>2025/01/08</t>
+        </is>
+      </c>
+      <c r="CK16" s="0" t="inlineStr"/>
+      <c r="CL16" s="0" t="inlineStr"/>
+      <c r="CM16" s="0" t="inlineStr"/>
+      <c r="CN16" s="0" t="inlineStr"/>
+      <c r="CO16" s="0" t="inlineStr"/>
+      <c r="CP16" s="0" t="inlineStr"/>
+      <c r="CQ16" s="0" t="inlineStr"/>
+      <c r="CR16" s="0" t="inlineStr"/>
+      <c r="CS16" s="0" t="inlineStr"/>
+      <c r="CT16" s="0" t="inlineStr"/>
+      <c r="CU16" s="0" t="inlineStr"/>
+      <c r="CV16" s="0" t="inlineStr"/>
+      <c r="CW16" s="0" t="inlineStr"/>
+      <c r="CX16" s="0" t="inlineStr"/>
+      <c r="CY16" s="0" t="inlineStr"/>
+      <c r="CZ16" s="0" t="inlineStr"/>
+      <c r="DA16" s="0" t="inlineStr"/>
+      <c r="DB16" s="0" t="inlineStr"/>
+      <c r="DC16" s="0" t="inlineStr"/>
+      <c r="DD16" s="0" t="inlineStr"/>
+      <c r="DE16" s="0" t="inlineStr"/>
+      <c r="DF16" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG16" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH16" s="0" t="inlineStr">
+        <is>
+          <t>0000185914</t>
+        </is>
+      </c>
+      <c r="DJ16" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="12" customHeight="1" s="2">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>16496</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr"/>
+      <c r="E17" s="0" t="inlineStr"/>
+      <c r="F17" s="0" t="inlineStr"/>
+      <c r="G17" s="0" t="inlineStr"/>
+      <c r="H17" s="0" t="inlineStr"/>
+      <c r="I17" s="0" t="inlineStr"/>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>非ホジキンリンパ腫</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr">
+        <is>
+          <t>リンパ節; NOS</t>
+        </is>
+      </c>
+      <c r="L17" s="0" t="inlineStr">
+        <is>
+          <t>lt</t>
+        </is>
+      </c>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>C77.9</t>
+        </is>
+      </c>
+      <c r="N17" s="0" t="inlineStr">
+        <is>
+          <t>MALT Lymphoma. mucosa-associated lymphoid tissue</t>
+        </is>
+      </c>
+      <c r="O17" s="0" t="inlineStr">
+        <is>
+          <t>M9699/3</t>
+        </is>
+      </c>
+      <c r="P17" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="Q17" s="0" t="inlineStr">
+        <is>
+          <t>p</t>
+        </is>
+      </c>
+      <c r="R17" s="0" t="inlineStr">
+        <is>
+          <t>T3a</t>
+        </is>
+      </c>
+      <c r="S17" s="0" t="inlineStr">
+        <is>
+          <t>N0</t>
+        </is>
+      </c>
+      <c r="T17" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="U17" s="0" t="inlineStr">
+        <is>
+          <t>SIII</t>
+        </is>
+      </c>
+      <c r="V17" s="0" t="inlineStr"/>
+      <c r="W17" s="0" t="inlineStr"/>
+      <c r="X17" s="0" t="inlineStr"/>
+      <c r="Y17" s="0" t="inlineStr"/>
+      <c r="Z17" s="0" t="inlineStr"/>
+      <c r="AA17" s="0" t="inlineStr"/>
+      <c r="AB17" s="0" t="inlineStr"/>
+      <c r="AC17" s="0" t="inlineStr"/>
+      <c r="AD17" s="0" t="inlineStr"/>
+      <c r="AE17" s="0" t="inlineStr"/>
+      <c r="AF17" s="0" t="inlineStr"/>
+      <c r="AG17" s="0" t="inlineStr"/>
+      <c r="AH17" s="0" t="inlineStr"/>
+      <c r="AI17" s="0" t="inlineStr"/>
+      <c r="AJ17" s="0" t="inlineStr"/>
+      <c r="AK17" s="0" t="inlineStr">
+        <is>
+          <t>泌尿器系腫瘍</t>
+        </is>
+      </c>
+      <c r="AL17" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM17" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN17" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO17" s="0" t="inlineStr"/>
+      <c r="AP17" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ17" s="0" t="inlineStr">
+        <is>
+          <t>2024/02/29</t>
+        </is>
+      </c>
+      <c r="AR17" s="0" t="inlineStr">
+        <is>
+          <t>2024/03/06</t>
+        </is>
+      </c>
+      <c r="AS17" s="0" t="inlineStr">
+        <is>
+          <t>35.00</t>
+        </is>
+      </c>
+      <c r="AT17" s="0" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="AU17" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AV17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW17" s="0" t="inlineStr"/>
+      <c r="AX17" s="0" t="inlineStr"/>
+      <c r="AY17" s="0" t="inlineStr">
+        <is>
+          <t>前立腺</t>
+        </is>
+      </c>
+      <c r="AZ17" s="0" t="inlineStr">
+        <is>
+          <t>C61.9</t>
+        </is>
+      </c>
+      <c r="BA17" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB17" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC17" s="0" t="inlineStr"/>
+      <c r="BD17" s="0" t="inlineStr"/>
+      <c r="BE17" s="0" t="inlineStr"/>
+      <c r="BF17" s="0" t="inlineStr"/>
+      <c r="BG17" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH17" s="0" t="inlineStr"/>
+      <c r="BI17" s="0" t="inlineStr"/>
+      <c r="BJ17" s="0" t="inlineStr"/>
+      <c r="BK17" s="0" t="inlineStr"/>
+      <c r="BL17" s="0" t="inlineStr"/>
+      <c r="BM17" s="0" t="inlineStr"/>
+      <c r="BN17" s="0" t="inlineStr"/>
+      <c r="BO17" s="0" t="inlineStr"/>
+      <c r="BP17" s="0" t="inlineStr"/>
+      <c r="BQ17" s="0" t="inlineStr"/>
+      <c r="BR17" s="0" t="inlineStr"/>
+      <c r="BS17" s="0" t="inlineStr"/>
+      <c r="BT17" s="0" t="inlineStr"/>
+      <c r="BU17" s="0" t="inlineStr"/>
+      <c r="BV17" s="0" t="inlineStr"/>
+      <c r="BW17" s="0" t="inlineStr"/>
+      <c r="BX17" s="0" t="inlineStr"/>
+      <c r="BY17" s="0" t="inlineStr"/>
+      <c r="BZ17" s="0" t="inlineStr"/>
+      <c r="CA17" s="0" t="inlineStr"/>
+      <c r="CB17" s="0" t="inlineStr"/>
+      <c r="CC17" s="0" t="inlineStr"/>
+      <c r="CD17" s="0" t="inlineStr"/>
+      <c r="CE17" s="0" t="inlineStr"/>
+      <c r="CF17" s="0" t="inlineStr"/>
+      <c r="CG17" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH17" s="0" t="inlineStr"/>
+      <c r="CI17" s="0" t="inlineStr">
+        <is>
+          <t>非担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ17" s="0" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="CK17" s="0" t="inlineStr"/>
+      <c r="CL17" s="0" t="inlineStr"/>
+      <c r="CM17" s="0" t="inlineStr"/>
+      <c r="CN17" s="0" t="inlineStr"/>
+      <c r="CO17" s="0" t="inlineStr"/>
+      <c r="CP17" s="0" t="inlineStr"/>
+      <c r="CQ17" s="0" t="inlineStr"/>
+      <c r="CR17" s="0" t="inlineStr"/>
+      <c r="CS17" s="0" t="inlineStr"/>
+      <c r="CT17" s="0" t="inlineStr"/>
+      <c r="CU17" s="0" t="inlineStr"/>
+      <c r="CV17" s="0" t="inlineStr"/>
+      <c r="CW17" s="0" t="inlineStr"/>
+      <c r="CX17" s="0" t="inlineStr"/>
+      <c r="CY17" s="0" t="inlineStr"/>
+      <c r="CZ17" s="0" t="inlineStr"/>
+      <c r="DA17" s="0" t="inlineStr"/>
+      <c r="DB17" s="0" t="inlineStr"/>
+      <c r="DC17" s="0" t="inlineStr"/>
+      <c r="DD17" s="0" t="inlineStr"/>
+      <c r="DE17" s="0" t="inlineStr"/>
+      <c r="DF17" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG17" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH17" s="0" t="inlineStr">
+        <is>
+          <t>0000200719</t>
+        </is>
+      </c>
+      <c r="DJ17" s="0" t="inlineStr">
+        <is>
+          <t>原発巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="12" customHeight="1" s="2">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>16631</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr"/>
+      <c r="E18" s="0" t="inlineStr"/>
+      <c r="F18" s="0" t="inlineStr"/>
+      <c r="G18" s="0" t="inlineStr"/>
+      <c r="H18" s="0" t="inlineStr"/>
+      <c r="I18" s="0" t="inlineStr"/>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>喉頭癌</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr">
+        <is>
+          <t>喉頭; NOS</t>
+        </is>
+      </c>
+      <c r="L18" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>C32.9</t>
+        </is>
+      </c>
+      <c r="N18" s="0" t="inlineStr">
+        <is>
+          <t>Squamous cell carcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O18" s="0" t="inlineStr">
+        <is>
+          <t>M8070/3</t>
+        </is>
+      </c>
+      <c r="P18" s="0" t="inlineStr"/>
+      <c r="Q18" s="0" t="inlineStr"/>
+      <c r="R18" s="0" t="inlineStr"/>
+      <c r="S18" s="0" t="inlineStr"/>
+      <c r="T18" s="0" t="inlineStr"/>
+      <c r="U18" s="0" t="inlineStr"/>
+      <c r="V18" s="0" t="inlineStr"/>
+      <c r="W18" s="0" t="inlineStr"/>
+      <c r="X18" s="0" t="inlineStr"/>
+      <c r="Y18" s="0" t="inlineStr"/>
+      <c r="Z18" s="0" t="inlineStr"/>
+      <c r="AA18" s="0" t="inlineStr"/>
+      <c r="AB18" s="0" t="inlineStr"/>
+      <c r="AC18" s="0" t="inlineStr"/>
+      <c r="AD18" s="0" t="inlineStr"/>
+      <c r="AE18" s="0" t="inlineStr"/>
+      <c r="AF18" s="0" t="inlineStr"/>
+      <c r="AG18" s="0" t="inlineStr"/>
+      <c r="AH18" s="0" t="inlineStr"/>
+      <c r="AI18" s="0" t="inlineStr"/>
+      <c r="AJ18" s="0" t="inlineStr"/>
+      <c r="AK18" s="0" t="inlineStr">
+        <is>
+          <t>肝・胆・膵癌</t>
+        </is>
+      </c>
+      <c r="AL18" s="0" t="inlineStr">
+        <is>
+          <t>新鮮</t>
+        </is>
+      </c>
+      <c r="AM18" s="0" t="inlineStr">
+        <is>
+          <t>新患</t>
+        </is>
+      </c>
+      <c r="AN18" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO18" s="0" t="inlineStr"/>
+      <c r="AP18" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ18" s="0" t="inlineStr">
+        <is>
+          <t>2024/07/03</t>
+        </is>
+      </c>
+      <c r="AR18" s="0" t="inlineStr">
+        <is>
+          <t>2025/01/29</t>
+        </is>
+      </c>
+      <c r="AS18" s="0" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="AT18" s="0" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="AU18" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AV18" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW18" s="0" t="inlineStr"/>
+      <c r="AX18" s="0" t="inlineStr"/>
+      <c r="AY18" s="0" t="inlineStr">
+        <is>
+          <t>肺; NOS</t>
+        </is>
+      </c>
+      <c r="AZ18" s="0" t="inlineStr">
+        <is>
+          <t>C34.9</t>
+        </is>
+      </c>
+      <c r="BA18" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB18" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC18" s="0" t="inlineStr"/>
+      <c r="BD18" s="0" t="inlineStr"/>
+      <c r="BE18" s="0" t="inlineStr"/>
+      <c r="BF18" s="0" t="inlineStr"/>
+      <c r="BG18" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH18" s="0" t="inlineStr"/>
+      <c r="BI18" s="0" t="inlineStr"/>
+      <c r="BJ18" s="0" t="inlineStr"/>
+      <c r="BK18" s="0" t="inlineStr">
+        <is>
+          <t>複数コースあり</t>
+        </is>
+      </c>
+      <c r="BL18" s="0" t="inlineStr"/>
+      <c r="BM18" s="0" t="inlineStr"/>
+      <c r="BN18" s="0" t="inlineStr"/>
+      <c r="BO18" s="0" t="inlineStr"/>
+      <c r="BP18" s="0" t="inlineStr"/>
+      <c r="BQ18" s="0" t="inlineStr"/>
+      <c r="BR18" s="0" t="inlineStr"/>
+      <c r="BS18" s="0" t="inlineStr"/>
+      <c r="BT18" s="0" t="inlineStr"/>
+      <c r="BU18" s="0" t="inlineStr"/>
+      <c r="BV18" s="0" t="inlineStr"/>
+      <c r="BW18" s="0" t="inlineStr"/>
+      <c r="BX18" s="0" t="inlineStr"/>
+      <c r="BY18" s="0" t="inlineStr"/>
+      <c r="BZ18" s="0" t="inlineStr"/>
+      <c r="CA18" s="0" t="inlineStr"/>
+      <c r="CB18" s="0" t="inlineStr"/>
+      <c r="CC18" s="0" t="inlineStr"/>
+      <c r="CD18" s="0" t="inlineStr"/>
+      <c r="CE18" s="0" t="inlineStr"/>
+      <c r="CF18" s="0" t="inlineStr"/>
+      <c r="CG18" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH18" s="0" t="inlineStr"/>
+      <c r="CI18" s="0" t="inlineStr">
+        <is>
+          <t>担癌生存</t>
+        </is>
+      </c>
+      <c r="CJ18" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/13</t>
+        </is>
+      </c>
+      <c r="CK18" s="0" t="inlineStr"/>
+      <c r="CL18" s="0" t="inlineStr"/>
+      <c r="CM18" s="0" t="inlineStr"/>
+      <c r="CN18" s="0" t="inlineStr"/>
+      <c r="CO18" s="0" t="inlineStr"/>
+      <c r="CP18" s="0" t="inlineStr"/>
+      <c r="CQ18" s="0" t="inlineStr"/>
+      <c r="CR18" s="0" t="inlineStr"/>
+      <c r="CS18" s="0" t="inlineStr"/>
+      <c r="CT18" s="0" t="inlineStr"/>
+      <c r="CU18" s="0" t="inlineStr"/>
+      <c r="CV18" s="0" t="inlineStr"/>
+      <c r="CW18" s="0" t="inlineStr"/>
+      <c r="CX18" s="0" t="inlineStr"/>
+      <c r="CY18" s="0" t="inlineStr"/>
+      <c r="CZ18" s="0" t="inlineStr"/>
+      <c r="DA18" s="0" t="inlineStr"/>
+      <c r="DB18" s="0" t="inlineStr"/>
+      <c r="DC18" s="0" t="inlineStr"/>
+      <c r="DD18" s="0" t="inlineStr"/>
+      <c r="DE18" s="0" t="inlineStr"/>
+      <c r="DF18" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG18" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH18" s="0" t="inlineStr">
+        <is>
+          <t>0000208752</t>
+        </is>
+      </c>
+      <c r="DJ18" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="19" ht="12" customHeight="1" s="2">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>16328</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr"/>
+      <c r="E19" s="0" t="inlineStr"/>
+      <c r="F19" s="0" t="inlineStr"/>
+      <c r="G19" s="0" t="inlineStr"/>
+      <c r="H19" s="0" t="inlineStr"/>
+      <c r="I19" s="0" t="inlineStr"/>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>下部食道の悪性新生物</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr">
+        <is>
+          <t>下部食道の悪性新生物</t>
+        </is>
+      </c>
+      <c r="L19" s="0" t="inlineStr"/>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>C15.5</t>
+        </is>
+      </c>
+      <c r="N19" s="0" t="inlineStr"/>
+      <c r="O19" s="0" t="inlineStr"/>
+      <c r="P19" s="0" t="inlineStr"/>
+      <c r="Q19" s="0" t="inlineStr"/>
+      <c r="R19" s="0" t="inlineStr"/>
+      <c r="S19" s="0" t="inlineStr"/>
+      <c r="T19" s="0" t="inlineStr"/>
+      <c r="U19" s="0" t="inlineStr"/>
+      <c r="V19" s="0" t="inlineStr"/>
+      <c r="W19" s="0" t="inlineStr"/>
+      <c r="X19" s="0" t="inlineStr"/>
+      <c r="Y19" s="0" t="inlineStr"/>
+      <c r="Z19" s="0" t="inlineStr"/>
+      <c r="AA19" s="0" t="inlineStr"/>
+      <c r="AB19" s="0" t="inlineStr"/>
+      <c r="AC19" s="0" t="inlineStr"/>
+      <c r="AD19" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="AE19" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AF19" s="0" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="AG19" s="0" t="inlineStr">
+        <is>
+          <t>NX</t>
+        </is>
+      </c>
+      <c r="AH19" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="AI19" s="0" t="inlineStr">
+        <is>
+          <t>SIIIB</t>
+        </is>
+      </c>
+      <c r="AJ19" s="0" t="inlineStr"/>
+      <c r="AK19" s="0" t="inlineStr">
+        <is>
+          <t>婦人科腫瘍</t>
+        </is>
+      </c>
+      <c r="AL19" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM19" s="0" t="inlineStr">
+        <is>
+          <t>再患</t>
+        </is>
+      </c>
+      <c r="AN19" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO19" s="0" t="inlineStr"/>
+      <c r="AP19" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ19" s="0" t="inlineStr">
+        <is>
+          <t>2024/03/07</t>
+        </is>
+      </c>
+      <c r="AR19" s="0" t="inlineStr">
+        <is>
+          <t>2024/03/11</t>
+        </is>
+      </c>
+      <c r="AS19" s="0" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="AT19" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV19" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW19" s="0" t="inlineStr"/>
+      <c r="AX19" s="0" t="inlineStr"/>
+      <c r="AY19" s="0" t="inlineStr">
+        <is>
+          <t>胸膜; NOS</t>
+        </is>
+      </c>
+      <c r="AZ19" s="0" t="inlineStr">
+        <is>
+          <t>C38.4</t>
+        </is>
+      </c>
+      <c r="BA19" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB19" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC19" s="0" t="inlineStr"/>
+      <c r="BD19" s="0" t="inlineStr"/>
+      <c r="BE19" s="0" t="inlineStr"/>
+      <c r="BF19" s="0" t="inlineStr"/>
+      <c r="BG19" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH19" s="0" t="inlineStr"/>
+      <c r="BI19" s="0" t="inlineStr"/>
+      <c r="BJ19" s="0" t="inlineStr"/>
+      <c r="BK19" s="0" t="inlineStr"/>
+      <c r="BL19" s="0" t="inlineStr"/>
+      <c r="BM19" s="0" t="inlineStr"/>
+      <c r="BN19" s="0" t="inlineStr"/>
+      <c r="BO19" s="0" t="inlineStr"/>
+      <c r="BP19" s="0" t="inlineStr"/>
+      <c r="BQ19" s="0" t="inlineStr"/>
+      <c r="BR19" s="0" t="inlineStr"/>
+      <c r="BS19" s="0" t="inlineStr"/>
+      <c r="BT19" s="0" t="inlineStr"/>
+      <c r="BU19" s="0" t="inlineStr"/>
+      <c r="BV19" s="0" t="inlineStr"/>
+      <c r="BW19" s="0" t="inlineStr"/>
+      <c r="BX19" s="0" t="inlineStr"/>
+      <c r="BY19" s="0" t="inlineStr"/>
+      <c r="BZ19" s="0" t="inlineStr"/>
+      <c r="CA19" s="0" t="inlineStr"/>
+      <c r="CB19" s="0" t="inlineStr"/>
+      <c r="CC19" s="0" t="inlineStr"/>
+      <c r="CD19" s="0" t="inlineStr"/>
+      <c r="CE19" s="0" t="inlineStr"/>
+      <c r="CF19" s="0" t="inlineStr"/>
+      <c r="CG19" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH19" s="0" t="inlineStr"/>
+      <c r="CI19" s="0" t="inlineStr">
+        <is>
+          <t>担癌不詳生存</t>
+        </is>
+      </c>
+      <c r="CJ19" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/02</t>
+        </is>
+      </c>
+      <c r="CK19" s="0" t="inlineStr"/>
+      <c r="CL19" s="0" t="inlineStr"/>
+      <c r="CM19" s="0" t="inlineStr"/>
+      <c r="CN19" s="0" t="inlineStr"/>
+      <c r="CO19" s="0" t="inlineStr"/>
+      <c r="CP19" s="0" t="inlineStr"/>
+      <c r="CQ19" s="0" t="inlineStr"/>
+      <c r="CR19" s="0" t="inlineStr"/>
+      <c r="CS19" s="0" t="inlineStr"/>
+      <c r="CT19" s="0" t="inlineStr"/>
+      <c r="CU19" s="0" t="inlineStr"/>
+      <c r="CV19" s="0" t="inlineStr"/>
+      <c r="CW19" s="0" t="inlineStr"/>
+      <c r="CX19" s="0" t="inlineStr"/>
+      <c r="CY19" s="0" t="inlineStr"/>
+      <c r="CZ19" s="0" t="inlineStr"/>
+      <c r="DA19" s="0" t="inlineStr"/>
+      <c r="DB19" s="0" t="inlineStr"/>
+      <c r="DC19" s="0" t="inlineStr"/>
+      <c r="DD19" s="0" t="inlineStr"/>
+      <c r="DE19" s="0" t="inlineStr"/>
+      <c r="DF19" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG19" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH19" s="0" t="inlineStr">
+        <is>
+          <t>0000221600</t>
+        </is>
+      </c>
+      <c r="DJ19" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="12" customHeight="1" s="2">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>16328</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>女</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr"/>
+      <c r="E20" s="0" t="inlineStr"/>
+      <c r="F20" s="0" t="inlineStr"/>
+      <c r="G20" s="0" t="inlineStr"/>
+      <c r="H20" s="0" t="inlineStr"/>
+      <c r="I20" s="0" t="inlineStr"/>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>乳房下外側４分の１の悪性新生物</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr">
+        <is>
+          <t>乳房下外側４分の１の悪性新生物</t>
+        </is>
+      </c>
+      <c r="L20" s="0" t="inlineStr">
+        <is>
+          <t>rt</t>
+        </is>
+      </c>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>C50.5</t>
+        </is>
+      </c>
+      <c r="N20" s="0" t="inlineStr">
+        <is>
+          <t>Infiltrating ductal carcinoma</t>
+        </is>
+      </c>
+      <c r="O20" s="0" t="inlineStr">
+        <is>
+          <t>M8521/3</t>
+        </is>
+      </c>
+      <c r="P20" s="0" t="inlineStr"/>
+      <c r="Q20" s="0" t="inlineStr"/>
+      <c r="R20" s="0" t="inlineStr"/>
+      <c r="S20" s="0" t="inlineStr"/>
+      <c r="T20" s="0" t="inlineStr"/>
+      <c r="U20" s="0" t="inlineStr"/>
+      <c r="V20" s="0" t="inlineStr"/>
+      <c r="W20" s="0" t="inlineStr"/>
+      <c r="X20" s="0" t="inlineStr"/>
+      <c r="Y20" s="0" t="inlineStr"/>
+      <c r="Z20" s="0" t="inlineStr"/>
+      <c r="AA20" s="0" t="inlineStr"/>
+      <c r="AB20" s="0" t="inlineStr"/>
+      <c r="AC20" s="0" t="inlineStr"/>
+      <c r="AD20" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="AE20" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AF20" s="0" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="AG20" s="0" t="inlineStr">
+        <is>
+          <t>NX</t>
+        </is>
+      </c>
+      <c r="AH20" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="AI20" s="0" t="inlineStr">
+        <is>
+          <t>SIIIB</t>
+        </is>
+      </c>
+      <c r="AJ20" s="0" t="inlineStr"/>
+      <c r="AK20" s="0" t="inlineStr">
+        <is>
+          <t>婦人科腫瘍</t>
+        </is>
+      </c>
+      <c r="AL20" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM20" s="0" t="inlineStr">
+        <is>
+          <t>再患</t>
+        </is>
+      </c>
+      <c r="AN20" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO20" s="0" t="inlineStr"/>
+      <c r="AP20" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ20" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/26</t>
+        </is>
+      </c>
+      <c r="AR20" s="0" t="inlineStr">
+        <is>
+          <t>2024/06/28</t>
+        </is>
+      </c>
+      <c r="AS20" s="0" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="AT20" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AU20" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="AV20" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW20" s="0" t="inlineStr"/>
+      <c r="AX20" s="0" t="inlineStr"/>
+      <c r="AY20" s="0" t="inlineStr"/>
+      <c r="AZ20" s="0" t="inlineStr"/>
+      <c r="BA20" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB20" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC20" s="0" t="inlineStr"/>
+      <c r="BD20" s="0" t="inlineStr"/>
+      <c r="BE20" s="0" t="inlineStr"/>
+      <c r="BF20" s="0" t="inlineStr"/>
+      <c r="BG20" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH20" s="0" t="inlineStr"/>
+      <c r="BI20" s="0" t="inlineStr"/>
+      <c r="BJ20" s="0" t="inlineStr"/>
+      <c r="BK20" s="0" t="inlineStr"/>
+      <c r="BL20" s="0" t="inlineStr"/>
+      <c r="BM20" s="0" t="inlineStr"/>
+      <c r="BN20" s="0" t="inlineStr"/>
+      <c r="BO20" s="0" t="inlineStr"/>
+      <c r="BP20" s="0" t="inlineStr"/>
+      <c r="BQ20" s="0" t="inlineStr"/>
+      <c r="BR20" s="0" t="inlineStr"/>
+      <c r="BS20" s="0" t="inlineStr"/>
+      <c r="BT20" s="0" t="inlineStr"/>
+      <c r="BU20" s="0" t="inlineStr"/>
+      <c r="BV20" s="0" t="inlineStr"/>
+      <c r="BW20" s="0" t="inlineStr"/>
+      <c r="BX20" s="0" t="inlineStr"/>
+      <c r="BY20" s="0" t="inlineStr"/>
+      <c r="BZ20" s="0" t="inlineStr"/>
+      <c r="CA20" s="0" t="inlineStr"/>
+      <c r="CB20" s="0" t="inlineStr"/>
+      <c r="CC20" s="0" t="inlineStr"/>
+      <c r="CD20" s="0" t="inlineStr"/>
+      <c r="CE20" s="0" t="inlineStr"/>
+      <c r="CF20" s="0" t="inlineStr"/>
+      <c r="CG20" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH20" s="0" t="inlineStr"/>
+      <c r="CI20" s="0" t="inlineStr">
+        <is>
+          <t>担癌不詳生存</t>
+        </is>
+      </c>
+      <c r="CJ20" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/02</t>
+        </is>
+      </c>
+      <c r="CK20" s="0" t="inlineStr"/>
+      <c r="CL20" s="0" t="inlineStr"/>
+      <c r="CM20" s="0" t="inlineStr"/>
+      <c r="CN20" s="0" t="inlineStr"/>
+      <c r="CO20" s="0" t="inlineStr"/>
+      <c r="CP20" s="0" t="inlineStr"/>
+      <c r="CQ20" s="0" t="inlineStr"/>
+      <c r="CR20" s="0" t="inlineStr"/>
+      <c r="CS20" s="0" t="inlineStr"/>
+      <c r="CT20" s="0" t="inlineStr"/>
+      <c r="CU20" s="0" t="inlineStr"/>
+      <c r="CV20" s="0" t="inlineStr"/>
+      <c r="CW20" s="0" t="inlineStr"/>
+      <c r="CX20" s="0" t="inlineStr"/>
+      <c r="CY20" s="0" t="inlineStr"/>
+      <c r="CZ20" s="0" t="inlineStr"/>
+      <c r="DA20" s="0" t="inlineStr"/>
+      <c r="DB20" s="0" t="inlineStr"/>
+      <c r="DC20" s="0" t="inlineStr"/>
+      <c r="DD20" s="0" t="inlineStr"/>
+      <c r="DE20" s="0" t="inlineStr"/>
+      <c r="DF20" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG20" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH20" s="0" t="inlineStr">
+        <is>
+          <t>0000221600</t>
+        </is>
+      </c>
+      <c r="DJ20" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="12" customHeight="1" s="2">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>16328</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>男</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr"/>
+      <c r="E21" s="0" t="inlineStr"/>
+      <c r="F21" s="0" t="inlineStr"/>
+      <c r="G21" s="0" t="inlineStr"/>
+      <c r="H21" s="0" t="inlineStr"/>
+      <c r="I21" s="0" t="inlineStr"/>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>肝癌</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr">
+        <is>
+          <t>肝</t>
+        </is>
+      </c>
+      <c r="L21" s="0" t="inlineStr">
+        <is>
+          <t>lt</t>
+        </is>
+      </c>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>C22.0</t>
+        </is>
+      </c>
+      <c r="N21" s="0" t="inlineStr">
+        <is>
+          <t>Hepatocellular carcinoma; NOS</t>
+        </is>
+      </c>
+      <c r="O21" s="0" t="inlineStr">
+        <is>
+          <t>M8170/3</t>
+        </is>
+      </c>
+      <c r="P21" s="0" t="inlineStr"/>
+      <c r="Q21" s="0" t="inlineStr"/>
+      <c r="R21" s="0" t="inlineStr"/>
+      <c r="S21" s="0" t="inlineStr"/>
+      <c r="T21" s="0" t="inlineStr"/>
+      <c r="U21" s="0" t="inlineStr"/>
+      <c r="V21" s="0" t="inlineStr"/>
+      <c r="W21" s="0" t="inlineStr"/>
+      <c r="X21" s="0" t="inlineStr"/>
+      <c r="Y21" s="0" t="inlineStr"/>
+      <c r="Z21" s="0" t="inlineStr"/>
+      <c r="AA21" s="0" t="inlineStr"/>
+      <c r="AB21" s="0" t="inlineStr"/>
+      <c r="AC21" s="0" t="inlineStr"/>
+      <c r="AD21" s="0" t="inlineStr">
+        <is>
+          <t>UICC 8th Japanese</t>
+        </is>
+      </c>
+      <c r="AE21" s="0" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+      <c r="AF21" s="0" t="inlineStr">
+        <is>
+          <t>T3</t>
+        </is>
+      </c>
+      <c r="AG21" s="0" t="inlineStr">
+        <is>
+          <t>NX</t>
+        </is>
+      </c>
+      <c r="AH21" s="0" t="inlineStr">
+        <is>
+          <t>M0</t>
+        </is>
+      </c>
+      <c r="AI21" s="0" t="inlineStr">
+        <is>
+          <t>SIIIB</t>
+        </is>
+      </c>
+      <c r="AJ21" s="0" t="inlineStr"/>
+      <c r="AK21" s="0" t="inlineStr">
+        <is>
+          <t>婦人科腫瘍</t>
+        </is>
+      </c>
+      <c r="AL21" s="0" t="inlineStr">
+        <is>
+          <t>再発</t>
+        </is>
+      </c>
+      <c r="AM21" s="0" t="inlineStr">
+        <is>
+          <t>再患</t>
+        </is>
+      </c>
+      <c r="AN21" s="0" t="inlineStr">
+        <is>
+          <t>根治</t>
+        </is>
+      </c>
+      <c r="AO21" s="0" t="inlineStr"/>
+      <c r="AP21" s="0" t="inlineStr">
+        <is>
+          <t>外来</t>
+        </is>
+      </c>
+      <c r="AQ21" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/02</t>
+        </is>
+      </c>
+      <c r="AR21" s="0" t="inlineStr">
+        <is>
+          <t>2024/12/06</t>
+        </is>
+      </c>
+      <c r="AS21" s="0" t="inlineStr">
+        <is>
+          <t>45.00</t>
+        </is>
+      </c>
+      <c r="AT21" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AU21" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AV21" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="AW21" s="0" t="inlineStr">
+        <is>
+          <t>遠隔転移</t>
+        </is>
+      </c>
+      <c r="AX21" s="0" t="inlineStr"/>
+      <c r="AY21" s="0" t="inlineStr"/>
+      <c r="AZ21" s="0" t="inlineStr"/>
+      <c r="BA21" s="0" t="inlineStr">
+        <is>
+          <t>Photon</t>
+        </is>
+      </c>
+      <c r="BB21" s="0" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="BC21" s="0" t="inlineStr"/>
+      <c r="BD21" s="0" t="inlineStr"/>
+      <c r="BE21" s="0" t="inlineStr"/>
+      <c r="BF21" s="0" t="inlineStr"/>
+      <c r="BG21" s="0" t="inlineStr">
+        <is>
+          <t>定位照射：肺</t>
+        </is>
+      </c>
+      <c r="BH21" s="0" t="inlineStr"/>
+      <c r="BI21" s="0" t="inlineStr"/>
+      <c r="BJ21" s="0" t="inlineStr"/>
+      <c r="BK21" s="0" t="inlineStr"/>
+      <c r="BL21" s="0" t="inlineStr"/>
+      <c r="BM21" s="0" t="inlineStr"/>
+      <c r="BN21" s="0" t="inlineStr"/>
+      <c r="BO21" s="0" t="inlineStr"/>
+      <c r="BP21" s="0" t="inlineStr"/>
+      <c r="BQ21" s="0" t="inlineStr"/>
+      <c r="BR21" s="0" t="inlineStr"/>
+      <c r="BS21" s="0" t="inlineStr"/>
+      <c r="BT21" s="0" t="inlineStr"/>
+      <c r="BU21" s="0" t="inlineStr"/>
+      <c r="BV21" s="0" t="inlineStr"/>
+      <c r="BW21" s="0" t="inlineStr"/>
+      <c r="BX21" s="0" t="inlineStr"/>
+      <c r="BY21" s="0" t="inlineStr"/>
+      <c r="BZ21" s="0" t="inlineStr"/>
+      <c r="CA21" s="0" t="inlineStr"/>
+      <c r="CB21" s="0" t="inlineStr"/>
+      <c r="CC21" s="0" t="inlineStr"/>
+      <c r="CD21" s="0" t="inlineStr"/>
+      <c r="CE21" s="0" t="inlineStr"/>
+      <c r="CF21" s="0" t="inlineStr"/>
+      <c r="CG21" s="0" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="CH21" s="0" t="inlineStr"/>
+      <c r="CI21" s="0" t="inlineStr">
+        <is>
+          <t>担癌不詳生存</t>
+        </is>
+      </c>
+      <c r="CJ21" s="0" t="inlineStr">
+        <is>
+          <t>2024/09/02</t>
+        </is>
+      </c>
+      <c r="CK21" s="0" t="inlineStr"/>
+      <c r="CL21" s="0" t="inlineStr"/>
+      <c r="CM21" s="0" t="inlineStr"/>
+      <c r="CN21" s="0" t="inlineStr"/>
+      <c r="CO21" s="0" t="inlineStr"/>
+      <c r="CP21" s="0" t="inlineStr"/>
+      <c r="CQ21" s="0" t="inlineStr"/>
+      <c r="CR21" s="0" t="inlineStr"/>
+      <c r="CS21" s="0" t="inlineStr"/>
+      <c r="CT21" s="0" t="inlineStr"/>
+      <c r="CU21" s="0" t="inlineStr"/>
+      <c r="CV21" s="0" t="inlineStr"/>
+      <c r="CW21" s="0" t="inlineStr"/>
+      <c r="CX21" s="0" t="inlineStr"/>
+      <c r="CY21" s="0" t="inlineStr"/>
+      <c r="CZ21" s="0" t="inlineStr"/>
+      <c r="DA21" s="0" t="inlineStr"/>
+      <c r="DB21" s="0" t="inlineStr"/>
+      <c r="DC21" s="0" t="inlineStr"/>
+      <c r="DD21" s="0" t="inlineStr"/>
+      <c r="DE21" s="0" t="inlineStr"/>
+      <c r="DF21" s="0" t="inlineStr">
+        <is>
+          <t>足利赤十字病院</t>
+        </is>
+      </c>
+      <c r="DG21" s="0" t="inlineStr">
+        <is>
+          <t>J09007</t>
+        </is>
+      </c>
+      <c r="DH21" s="0" t="inlineStr">
+        <is>
+          <t>0000221600</t>
+        </is>
+      </c>
+      <c r="DI21" s="1" t="n">
+        <v>2510</v>
+      </c>
+      <c r="DJ21" s="0" t="inlineStr">
+        <is>
+          <t>転移巣</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="12" customHeight="1" s="2">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="V22" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="W22" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="X22" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y22" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z22" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB22" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC22" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD22" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="AE22" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="AF22" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG22" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="AH22" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI22" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="AJ22" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK22" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL22" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM22" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN22" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO22" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP22" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="AQ22" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="AR22" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS22" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="AT22" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="AU22" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="AV22" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW22" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="AX22" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="AY22" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ22" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="BA22" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="BB22" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="BC22" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="BD22" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="BE22" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="BF22" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="BG22" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="BH22" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="BI22" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="BJ22" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="BK22" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="BL22" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="BM22" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="BN22" s="0" t="n">
+        <v>66</v>
+      </c>
+      <c r="BO22" s="0" t="n">
+        <v>67</v>
+      </c>
+      <c r="BP22" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="BQ22" s="0" t="n">
+        <v>69</v>
+      </c>
+      <c r="BR22" s="0" t="n">
+        <v>70</v>
+      </c>
+      <c r="BS22" s="0" t="n">
+        <v>71</v>
+      </c>
+      <c r="BT22" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="BU22" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="BV22" s="0" t="n">
+        <v>74</v>
+      </c>
+      <c r="BW22" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="BX22" s="0" t="n">
+        <v>76</v>
+      </c>
+      <c r="BY22" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="BZ22" s="0" t="n">
+        <v>78</v>
+      </c>
+      <c r="CA22" s="0" t="n">
+        <v>79</v>
+      </c>
+      <c r="CB22" s="0" t="n">
+        <v>80</v>
+      </c>
+      <c r="CC22" s="0" t="n">
+        <v>81</v>
+      </c>
+      <c r="CD22" s="0" t="n">
+        <v>82</v>
+      </c>
+      <c r="CE22" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="CF22" s="0" t="n">
+        <v>84</v>
+      </c>
+      <c r="CG22" s="0" t="n">
+        <v>85</v>
+      </c>
+      <c r="CH22" s="0" t="n">
+        <v>86</v>
+      </c>
+      <c r="CI22" s="0" t="n">
+        <v>87</v>
+      </c>
+      <c r="CJ22" s="0" t="n">
+        <v>88</v>
+      </c>
+      <c r="CK22" s="0" t="n">
+        <v>89</v>
+      </c>
+      <c r="CL22" s="0" t="n">
+        <v>90</v>
+      </c>
+      <c r="CM22" s="0" t="n">
+        <v>91</v>
+      </c>
+      <c r="CN22" s="0" t="n">
+        <v>92</v>
+      </c>
+      <c r="CO22" s="0" t="n">
+        <v>93</v>
+      </c>
+      <c r="CP22" s="0" t="n">
+        <v>94</v>
+      </c>
+      <c r="CQ22" s="0" t="n">
+        <v>95</v>
+      </c>
+      <c r="CR22" s="0" t="n">
+        <v>96</v>
+      </c>
+      <c r="CS22" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="CT22" s="0" t="n">
+        <v>98</v>
+      </c>
+      <c r="CU22" s="0" t="n">
+        <v>99</v>
+      </c>
+      <c r="CV22" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="CW22" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="CX22" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="CY22" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="CZ22" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="DA22" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="DB22" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="DC22" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="DD22" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="DE22" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="DF22" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="DG22" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="DH22" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="DI22" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="DJ22" s="0" t="n">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" ht="12" customHeight="1" s="2"/>
+    <row r="24" ht="12" customHeight="1" s="2"/>
+    <row r="25" ht="12" customHeight="1" s="2"/>
+    <row r="26" ht="12" customHeight="1" s="2"/>
+    <row r="27" ht="12" customHeight="1" s="2"/>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="8" fitToHeight="0" fitToWidth="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ROW</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>COLUMN</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Original value</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>new value</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>item name</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>datetime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="n">
+        <v>85</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>予定治療完遂</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>予定治療完遂(8日以上の中断あり)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>放射線治療完遂度</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:01:16 (JST)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>87</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>担癌生存</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.消息不明</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>生死の状況</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:01:16 (JST)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>88</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025/01/06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>最終確認日</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:01:25 (JST)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>87</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>7.消息不明</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.消息不明</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>生死の状況</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-02-23 18:01:25 (JST)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/JRODe_test.xlsx
+++ b/JRODe_test.xlsx
@@ -32,12 +32,17 @@
       <sz val="6"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ACEBF0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -54,7 +59,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -62,6 +67,7 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1239,13 +1245,13 @@
       <c r="CF2" s="0" t="inlineStr"/>
       <c r="CG2" s="0" t="inlineStr">
         <is>
-          <t>予定治療完遂</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="CH2" s="0" t="inlineStr"/>
       <c r="CI2" s="0" t="inlineStr">
         <is>
-          <t>非担癌生存</t>
+          <t>7.消息不明</t>
         </is>
       </c>
       <c r="CJ2" s="0" t="inlineStr">
@@ -1289,6 +1295,7 @@
           <t>0000041750</t>
         </is>
       </c>
+      <c r="DI2" t="inlineStr"/>
       <c r="DJ2" s="0" t="inlineStr">
         <is>
           <t>原発巣</t>
@@ -1960,13 +1967,13 @@
       <c r="CF5" s="0" t="inlineStr"/>
       <c r="CG5" s="0" t="inlineStr">
         <is>
-          <t>予定治療完遂(8日以上の中断あり)</t>
+          <t>予定治療完遂</t>
         </is>
       </c>
       <c r="CH5" s="0" t="inlineStr"/>
       <c r="CI5" s="0" t="inlineStr">
         <is>
-          <t>7.消息不明</t>
+          <t>担癌生存</t>
         </is>
       </c>
       <c r="CJ5" s="0" t="inlineStr">
@@ -2010,7 +2017,6 @@
           <t>0000067946</t>
         </is>
       </c>
-      <c r="DI5" t="inlineStr"/>
       <c r="DJ5" s="0" t="inlineStr">
         <is>
           <t>転移巣</t>
@@ -7313,13 +7319,13 @@
       <c r="CF2" s="0" t="inlineStr"/>
       <c r="CG2" s="0" t="inlineStr">
         <is>
-          <t>予定治療完遂</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="CH2" s="0" t="inlineStr"/>
       <c r="CI2" s="0" t="inlineStr">
         <is>
-          <t>非担癌生存</t>
+          <t>7.消息不明</t>
         </is>
       </c>
       <c r="CJ2" s="0" t="inlineStr">
@@ -8034,13 +8040,13 @@
       <c r="CF5" s="0" t="inlineStr"/>
       <c r="CG5" s="0" t="inlineStr">
         <is>
-          <t>予定治療完遂(8日以上の中断あり)</t>
+          <t>予定治療完遂</t>
         </is>
       </c>
       <c r="CH5" s="0" t="inlineStr"/>
       <c r="CI5" s="0" t="inlineStr">
         <is>
-          <t>7.消息不明</t>
+          <t>担癌生存</t>
         </is>
       </c>
       <c r="CJ5" s="0" t="inlineStr">
@@ -12593,42 +12599,50 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="6" customWidth="1" style="2" min="1" max="1"/>
+    <col width="9" customWidth="1" style="2" min="2" max="2"/>
+    <col width="20" customWidth="1" style="2" min="3" max="3"/>
+    <col width="20" customWidth="1" style="2" min="4" max="4"/>
+    <col width="15" customWidth="1" style="2" min="5" max="5"/>
+    <col width="25" customWidth="1" style="2" min="6" max="6"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>ROW</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>COLUMN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Original value</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>new value</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>item name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>datetime</t>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>New value</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Item name</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Datetime</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>85</v>
@@ -12640,7 +12654,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>予定治療完遂(8日以上の中断あり)</t>
+          <t>不明</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -12650,20 +12664,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-23 18:01:16 (JST)</t>
+          <t>2025-02-23 21:56:25 (JST)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>87</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>担癌生存</t>
+          <t>非担癌生存</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -12678,25 +12692,25 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-02-23 18:01:16 (JST)</t>
+          <t>2025-02-23 21:56:25 (JST)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>88</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025/01/06</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -12706,13 +12720,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-02-23 18:01:25 (JST)</t>
+          <t>2025-02-23 21:56:26 (JST)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>87</v>
@@ -12734,7 +12748,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-02-23 18:01:25 (JST)</t>
+          <t>2025-02-23 21:56:26 (JST)</t>
         </is>
       </c>
     </row>

--- a/JRODe_test.xlsx
+++ b/JRODe_test.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="copied-ws" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="trans-log" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ws_copy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ws_log" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -1245,13 +1245,13 @@
       <c r="CF2" s="0" t="inlineStr"/>
       <c r="CG2" s="0" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>予定治療完遂</t>
         </is>
       </c>
       <c r="CH2" s="0" t="inlineStr"/>
       <c r="CI2" s="0" t="inlineStr">
         <is>
-          <t>7.消息不明</t>
+          <t>6.不明死</t>
         </is>
       </c>
       <c r="CJ2" s="0" t="inlineStr">
@@ -7319,13 +7319,13 @@
       <c r="CF2" s="0" t="inlineStr"/>
       <c r="CG2" s="0" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>予定治療完遂</t>
         </is>
       </c>
       <c r="CH2" s="0" t="inlineStr"/>
       <c r="CI2" s="0" t="inlineStr">
         <is>
-          <t>7.消息不明</t>
+          <t>6.不明死</t>
         </is>
       </c>
       <c r="CJ2" s="0" t="inlineStr">
@@ -12592,7 +12592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12645,26 +12645,26 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>予定治療完遂</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>不明</t>
+          <t>2024/12/18</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>放射線治療完遂度</t>
+          <t>最終確認日</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-23 21:56:25 (JST)</t>
+          <t>2025-02-24 09:49:13 (JST)</t>
         </is>
       </c>
     </row>
@@ -12682,7 +12682,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.消息不明</t>
+          <t>6.不明死</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -12692,63 +12692,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-02-23 21:56:25 (JST)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>88</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2024/12/18</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2024/12/18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>最終確認日</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-02-23 21:56:26 (JST)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" t="n">
-        <v>87</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>7.消息不明</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.消息不明</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>生死の状況</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-02-23 21:56:26 (JST)</t>
+          <t>2025-02-24 09:49:13 (JST)</t>
         </is>
       </c>
     </row>
